--- a/resources/experiment 1/predictions/multiple/LinearRegression/upto time/Neuropatías (UPTO).xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/upto time/Neuropatías (UPTO).xlsx
@@ -746,7 +746,7 @@
         <v>11.70327072102092</v>
       </c>
       <c r="N2" t="n">
-        <v>7.482940335124244</v>
+        <v>7.482940335124243</v>
       </c>
       <c r="O2" t="n">
         <v>16.22961204113254</v>
@@ -779,7 +779,7 @@
         <v>2.570465516299649</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2828206681232806</v>
+        <v>0.2828206681232805</v>
       </c>
       <c r="Z2" t="n">
         <v>0.01132978067713119</v>
@@ -901,7 +901,7 @@
         <v>3.399594484997181</v>
       </c>
       <c r="K3" t="n">
-        <v>1.491280349270609</v>
+        <v>1.491280349270607</v>
       </c>
       <c r="L3" t="n">
         <v>5.829698164039234</v>
@@ -913,7 +913,7 @@
         <v>10.47051614059044</v>
       </c>
       <c r="O3" t="n">
-        <v>22.02671307157141</v>
+        <v>22.0267130715714</v>
       </c>
       <c r="P3" t="n">
         <v>9.287570808745494</v>
@@ -946,7 +946,7 @@
         <v>0.6476210890281391</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0364147870474141</v>
+        <v>0.03641478704741412</v>
       </c>
       <c r="AA3" t="n">
         <v>1.566433083161281</v>
@@ -964,7 +964,7 @@
         <v>-1.181307160490231</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.5730421167454481</v>
+        <v>-0.5730421167454482</v>
       </c>
       <c r="AG3" t="n">
         <v>-1.854065308374686</v>
@@ -976,10 +976,10 @@
         <v>-1.762732774957394</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-3.928308965903502</v>
+        <v>-3.928308965903503</v>
       </c>
       <c r="AK3" t="n">
-        <v>-2.370634775554063</v>
+        <v>-2.370634775554061</v>
       </c>
       <c r="AL3" t="n">
         <v>-1.812444678661722</v>
@@ -994,13 +994,13 @@
         <v>-0.6101847301888763</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.9640944426377693</v>
+        <v>0.9640944426377702</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.51143436378648</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.4223303908571612</v>
+        <v>0.422330390857161</v>
       </c>
       <c r="AS3" t="n">
         <v>2.964850556147621</v>
@@ -1009,22 +1009,22 @@
         <v>1.921881715725341</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.7322702384317743</v>
+        <v>0.7322702384317745</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.457567302221791</v>
+        <v>3.457567302221792</v>
       </c>
       <c r="AW3" t="n">
         <v>1.514020753210417</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.5551822971028032</v>
+        <v>0.5551822971028033</v>
       </c>
       <c r="AY3" t="n">
         <v>2.759840986857682</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.4206480396116613</v>
+        <v>0.4206480396116611</v>
       </c>
       <c r="BA3" t="n">
         <v>0.0405694436109519</v>
@@ -1056,25 +1056,25 @@
         <v>-10.63146785457629</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.873790552389805</v>
+        <v>-7.873790552389808</v>
       </c>
       <c r="I4" t="n">
         <v>-12.74719646810359</v>
       </c>
       <c r="J4" t="n">
-        <v>6.745434546141535</v>
+        <v>6.745434546141537</v>
       </c>
       <c r="K4" t="n">
-        <v>4.065624190647776</v>
+        <v>4.065624190647777</v>
       </c>
       <c r="L4" t="n">
-        <v>9.821884699433188</v>
+        <v>9.821884699433189</v>
       </c>
       <c r="M4" t="n">
         <v>19.21874896653693</v>
       </c>
       <c r="N4" t="n">
-        <v>12.78182860296326</v>
+        <v>12.78182860296327</v>
       </c>
       <c r="O4" t="n">
         <v>25.57968417742774</v>
@@ -1107,10 +1107,10 @@
         <v>4.660795941590159</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5893659432870298</v>
+        <v>0.5893659432870297</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04052657954742665</v>
+        <v>0.04052657954742666</v>
       </c>
       <c r="AA4" t="n">
         <v>1.42037630688135</v>
@@ -1128,13 +1128,13 @@
         <v>-0.8980001538133986</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.4317105840900398</v>
+        <v>-0.4317105840900399</v>
       </c>
       <c r="AG4" t="n">
         <v>-1.423007140562444</v>
       </c>
       <c r="AH4" t="n">
-        <v>-2.323199241180726</v>
+        <v>-2.323199241180725</v>
       </c>
       <c r="AI4" t="n">
         <v>-1.409647376386924</v>
@@ -1143,7 +1143,7 @@
         <v>-3.288677438672906</v>
       </c>
       <c r="AK4" t="n">
-        <v>-1.733728119066043</v>
+        <v>-1.733728119066042</v>
       </c>
       <c r="AL4" t="n">
         <v>-1.388337129195852</v>
@@ -1155,7 +1155,7 @@
         <v>0.9630544244922192</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0377733289024782</v>
+        <v>0.03777332890247775</v>
       </c>
       <c r="AP4" t="n">
         <v>2.251983581643021</v>
@@ -1167,7 +1167,7 @@
         <v>1.044666386398412</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.055942517190718</v>
+        <v>4.055942517190719</v>
       </c>
       <c r="AT4" t="n">
         <v>2.527854670625342</v>
@@ -1176,7 +1176,7 @@
         <v>1.143986259104062</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.226696618194437</v>
+        <v>4.226696618194438</v>
       </c>
       <c r="AW4" t="n">
         <v>1.815404864465747</v>
@@ -1185,13 +1185,13 @@
         <v>0.7333768612209569</v>
       </c>
       <c r="AY4" t="n">
-        <v>3.190049140276376</v>
+        <v>3.190049140276377</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.4806156698678582</v>
+        <v>0.480615669867858</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0561188147242096</v>
+        <v>0.05611881472420959</v>
       </c>
       <c r="BB4" t="n">
         <v>1.143385880585952</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.758395284546229</v>
+        <v>-6.75839528454623</v>
       </c>
       <c r="E5" t="n">
         <v>-5.335190044670722</v>
@@ -1220,19 +1220,19 @@
         <v>-2.590305935609486</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.873054801669708</v>
+        <v>-2.87305480166971</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.804643836232106</v>
+        <v>-1.804643836232103</v>
       </c>
       <c r="J5" t="n">
-        <v>1.506733649202568</v>
+        <v>1.506733649202571</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.08040682165864688</v>
+        <v>-0.08040682165864865</v>
       </c>
       <c r="L5" t="n">
-        <v>3.771374775809416</v>
+        <v>3.77137477580942</v>
       </c>
       <c r="M5" t="n">
         <v>6.244197270353906</v>
@@ -1241,13 +1241,13 @@
         <v>3.170220936652559</v>
       </c>
       <c r="O5" t="n">
-        <v>9.699622885946546</v>
+        <v>9.699622885946548</v>
       </c>
       <c r="P5" t="n">
-        <v>6.088182335978886</v>
+        <v>6.088182335978885</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.561807102747572</v>
+        <v>3.561807102747571</v>
       </c>
       <c r="R5" t="n">
         <v>8.690422024872751</v>
@@ -1265,7 +1265,7 @@
         <v>2.427270930582685</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9592909587258244</v>
+        <v>0.9592909587258243</v>
       </c>
       <c r="X5" t="n">
         <v>4.113835620445946</v>
@@ -1274,7 +1274,7 @@
         <v>0.5529427964824738</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02021736595991538</v>
+        <v>0.02021736595991539</v>
       </c>
       <c r="AA5" t="n">
         <v>1.370570371869727</v>
@@ -1292,7 +1292,7 @@
         <v>-0.4676698382908905</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.2746940759316443</v>
+        <v>-0.2746940759316445</v>
       </c>
       <c r="AG5" t="n">
         <v>-0.6399278153559563</v>
@@ -1304,10 +1304,10 @@
         <v>-0.7346399207086041</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.9199575725758118</v>
+        <v>-0.9199575725758127</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.5268449325037685</v>
+        <v>-0.5268449325037676</v>
       </c>
       <c r="AL5" t="n">
         <v>-0.716836293826804</v>
@@ -1325,7 +1325,7 @@
         <v>1.304365288470969</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.053112054769281</v>
+        <v>1.05311205476928</v>
       </c>
       <c r="AR5" t="n">
         <v>0.08530071494590752</v>
@@ -1337,7 +1337,7 @@
         <v>1.382265405773754</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.3622518217138484</v>
+        <v>0.3622518217138486</v>
       </c>
       <c r="AV5" t="n">
         <v>2.753571102007457</v>
@@ -1346,16 +1346,16 @@
         <v>1.127530537449198</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.2956998741144605</v>
+        <v>0.2956998741144606</v>
       </c>
       <c r="AY5" t="n">
         <v>2.228843534797798</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.3228726363049993</v>
+        <v>0.3228726363049991</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.003731879136323772</v>
+        <v>0.003731879136323779</v>
       </c>
       <c r="BB5" t="n">
         <v>0.8822929016168306</v>
@@ -1375,7 +1375,7 @@
         <v>3.841392144918034</v>
       </c>
       <c r="E6" t="n">
-        <v>2.340756357551782</v>
+        <v>2.340756357551781</v>
       </c>
       <c r="F6" t="n">
         <v>5.658793849038804</v>
@@ -1384,13 +1384,13 @@
         <v>6.680773849270321</v>
       </c>
       <c r="H6" t="n">
-        <v>4.043724094475373</v>
+        <v>4.043724094475374</v>
       </c>
       <c r="I6" t="n">
         <v>9.691670647081427</v>
       </c>
       <c r="J6" t="n">
-        <v>7.465533284475279</v>
+        <v>7.46553328447528</v>
       </c>
       <c r="K6" t="n">
         <v>4.318857552641893</v>
@@ -1399,7 +1399,7 @@
         <v>11.07357510192857</v>
       </c>
       <c r="M6" t="n">
-        <v>6.707452332164001</v>
+        <v>6.707452332164</v>
       </c>
       <c r="N6" t="n">
         <v>3.715237309745714</v>
@@ -1453,28 +1453,28 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3001238172370235</v>
+        <v>0.3001238172370234</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.08629408475124588</v>
+        <v>0.08629408475124585</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5838781423176187</v>
+        <v>0.5838781423176188</v>
       </c>
       <c r="AH6" t="n">
         <v>1.035516601976886</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.4238882275682766</v>
+        <v>0.4238882275682767</v>
       </c>
       <c r="AJ6" t="n">
         <v>1.862653014049933</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.808861457683614</v>
+        <v>1.808861457683613</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.764832030463465</v>
+        <v>0.7648320304634649</v>
       </c>
       <c r="AM6" t="n">
         <v>3.138891035143033</v>
@@ -1501,7 +1501,7 @@
         <v>2.290761939281824</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9780986492222025</v>
+        <v>0.9780986492222027</v>
       </c>
       <c r="AV6" t="n">
         <v>3.920882591835328</v>
@@ -1516,7 +1516,7 @@
         <v>2.803077551336925</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.3950656055604959</v>
+        <v>0.3950656055604957</v>
       </c>
       <c r="BA6" t="n">
         <v>0.01035538754277994</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.433340750439493</v>
+        <v>-2.433340750439495</v>
       </c>
       <c r="E7" t="n">
         <v>-1.755570813789679</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.178969399512413</v>
+        <v>-3.178969399512409</v>
       </c>
       <c r="G7" t="n">
         <v>4.687626208265005</v>
       </c>
       <c r="H7" t="n">
-        <v>3.157201974162726</v>
+        <v>3.157201974162724</v>
       </c>
       <c r="I7" t="n">
         <v>6.240004215114773</v>
@@ -1569,7 +1569,7 @@
         <v>14.64074855583427</v>
       </c>
       <c r="O7" t="n">
-        <v>28.38799665170997</v>
+        <v>28.38799665170996</v>
       </c>
       <c r="P7" t="n">
         <v>8.445337262308232</v>
@@ -1587,22 +1587,22 @@
         <v>2.126007401449845</v>
       </c>
       <c r="U7" t="n">
-        <v>6.7369269774262</v>
+        <v>6.736926977426199</v>
       </c>
       <c r="V7" t="n">
         <v>1.881434969091941</v>
       </c>
       <c r="W7" t="n">
-        <v>0.752972177481478</v>
+        <v>0.7529721774814779</v>
       </c>
       <c r="X7" t="n">
         <v>3.397091688546249</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.378636471877621</v>
+        <v>0.3786364718776211</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02561208568250935</v>
+        <v>0.02561208568250936</v>
       </c>
       <c r="AA7" t="n">
         <v>0.9646457655240107</v>
@@ -1635,7 +1635,7 @@
         <v>0.1316322913517514</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.565547290877145</v>
+        <v>1.565547290877146</v>
       </c>
       <c r="AL7" t="n">
         <v>0.7172864880894524</v>
@@ -1677,7 +1677,7 @@
         <v>1.13816825263457</v>
       </c>
       <c r="AY7" t="n">
-        <v>4.146229660274785</v>
+        <v>4.146229660274784</v>
       </c>
       <c r="AZ7" t="n">
         <v>0.6154488936378971</v>
@@ -1700,25 +1700,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.46647208050459</v>
+        <v>2.466472080504591</v>
       </c>
       <c r="E8" t="n">
         <v>2.281783537188868</v>
       </c>
       <c r="F8" t="n">
-        <v>2.333121974399894</v>
+        <v>2.333121974399898</v>
       </c>
       <c r="G8" t="n">
         <v>11.28490063700106</v>
       </c>
       <c r="H8" t="n">
-        <v>8.782691642737671</v>
+        <v>8.782691642737667</v>
       </c>
       <c r="I8" t="n">
-        <v>13.40864003664204</v>
+        <v>13.40864003664205</v>
       </c>
       <c r="J8" t="n">
-        <v>31.51879786973363</v>
+        <v>31.51879786973362</v>
       </c>
       <c r="K8" t="n">
         <v>22.31669283468987</v>
@@ -1727,13 +1727,13 @@
         <v>39.96478712701651</v>
       </c>
       <c r="M8" t="n">
-        <v>37.01778351590525</v>
+        <v>37.01778351590524</v>
       </c>
       <c r="N8" t="n">
         <v>26.25376315824383</v>
       </c>
       <c r="O8" t="n">
-        <v>47.24507599252082</v>
+        <v>47.24507599252081</v>
       </c>
       <c r="P8" t="n">
         <v>10.84388791836867</v>
@@ -1745,7 +1745,7 @@
         <v>15.98062408266673</v>
       </c>
       <c r="S8" t="n">
-        <v>3.957166350434778</v>
+        <v>3.957166350434777</v>
       </c>
       <c r="T8" t="n">
         <v>1.953517737379975</v>
@@ -1763,7 +1763,7 @@
         <v>2.681191728025326</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.203192636064093</v>
+        <v>0.2031926360640932</v>
       </c>
       <c r="Z8" t="n">
         <v>0.03292192148722388</v>
@@ -1784,19 +1784,19 @@
         <v>0.09943510639675956</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1089002859439059</v>
+        <v>0.1089002859439061</v>
       </c>
       <c r="AG8" t="n">
         <v>0.04033224587485351</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.9368350030421424</v>
+        <v>0.9368350030421433</v>
       </c>
       <c r="AI8" t="n">
         <v>0.6712529323461538</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.183498210112412</v>
+        <v>1.183498210112413</v>
       </c>
       <c r="AK8" t="n">
         <v>3.611273462362662</v>
@@ -1817,7 +1817,7 @@
         <v>11.25157796658162</v>
       </c>
       <c r="AQ8" t="n">
-        <v>8.215409785688966</v>
+        <v>8.215409785688967</v>
       </c>
       <c r="AR8" t="n">
         <v>5.059479518508919</v>
@@ -1841,10 +1841,10 @@
         <v>1.980641740099347</v>
       </c>
       <c r="AY8" t="n">
-        <v>6.070510307174545</v>
+        <v>6.070510307174544</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.9076433475053171</v>
+        <v>0.9076433475053173</v>
       </c>
       <c r="BA8" t="n">
         <v>0.1266068858262941</v>
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.166620161247458</v>
+        <v>-2.166620161247463</v>
       </c>
       <c r="E9" t="n">
         <v>-1.888491580367876</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.312273023433038</v>
+        <v>-2.312273023433036</v>
       </c>
       <c r="G9" t="n">
         <v>3.379803184067571</v>
@@ -1882,19 +1882,19 @@
         <v>5.293018495201103</v>
       </c>
       <c r="J9" t="n">
-        <v>8.554330322960121</v>
+        <v>8.554330322960123</v>
       </c>
       <c r="K9" t="n">
         <v>5.128981322780406</v>
       </c>
       <c r="L9" t="n">
-        <v>12.33406276234091</v>
+        <v>12.33406276234092</v>
       </c>
       <c r="M9" t="n">
         <v>11.39685075339537</v>
       </c>
       <c r="N9" t="n">
-        <v>7.080410945258944</v>
+        <v>7.080410945258943</v>
       </c>
       <c r="O9" t="n">
         <v>15.96203722242204</v>
@@ -1921,7 +1921,7 @@
         <v>2.024262592683315</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7899426605337714</v>
+        <v>0.7899426605337713</v>
       </c>
       <c r="X9" t="n">
         <v>3.548596118589754</v>
@@ -1948,25 +1948,25 @@
         <v>-0.160454189812928</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.1101125523455414</v>
+        <v>-0.1101125523455416</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.1867766871652609</v>
+        <v>-0.1867766871652607</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.05856830195727514</v>
+        <v>0.05856830195727469</v>
       </c>
       <c r="AI9" t="n">
         <v>-0.1312842502150882</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.3579252077198922</v>
+        <v>0.3579252077198918</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.9802986399492624</v>
+        <v>0.9802986399492628</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.2741271933400538</v>
+        <v>0.2741271933400535</v>
       </c>
       <c r="AM9" t="n">
         <v>1.952341951049561</v>
@@ -2008,7 +2008,7 @@
         <v>3.05478723452132</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.4447169141447827</v>
+        <v>0.4447169141447826</v>
       </c>
       <c r="BA9" t="n">
         <v>0.02473653539159724</v>
@@ -2028,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.600692902483348</v>
+        <v>5.600692902483347</v>
       </c>
       <c r="E10" t="n">
         <v>4.222355874621011</v>
       </c>
       <c r="F10" t="n">
-        <v>6.67627511486779</v>
+        <v>6.676275114867794</v>
       </c>
       <c r="G10" t="n">
         <v>17.98915987789599</v>
@@ -2049,7 +2049,7 @@
         <v>30.78591738271763</v>
       </c>
       <c r="K10" t="n">
-        <v>21.56726952623608</v>
+        <v>21.56726952623607</v>
       </c>
       <c r="L10" t="n">
         <v>39.28261438234775</v>
@@ -2073,7 +2073,7 @@
         <v>13.79564798663881</v>
       </c>
       <c r="S10" t="n">
-        <v>3.285791013978059</v>
+        <v>3.285791013978058</v>
       </c>
       <c r="T10" t="n">
         <v>1.542691080773119</v>
@@ -2085,13 +2085,13 @@
         <v>1.081185993713946</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4048586957942937</v>
+        <v>0.4048586957942936</v>
       </c>
       <c r="X10" t="n">
         <v>2.264924742076317</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1592660234172859</v>
+        <v>0.159266023417286</v>
       </c>
       <c r="Z10" t="n">
         <v>0.01907786269711284</v>
@@ -2112,10 +2112,10 @@
         <v>0.3006147485710082</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1872253813159797</v>
+        <v>0.1872253813159798</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.4020218679239461</v>
+        <v>0.4020218679239462</v>
       </c>
       <c r="AH10" t="n">
         <v>1.883676752774092</v>
@@ -2172,7 +2172,7 @@
         <v>5.784328016876282</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.8599010562484198</v>
+        <v>0.8599010562484199</v>
       </c>
       <c r="BA10" t="n">
         <v>0.1021316520062349</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.142642494098123</v>
+        <v>8.142642494098121</v>
       </c>
       <c r="E11" t="n">
         <v>5.450996013567291</v>
@@ -2228,7 +2228,7 @@
         <v>18.77034969670427</v>
       </c>
       <c r="P11" t="n">
-        <v>5.3318246377004</v>
+        <v>5.331824637700399</v>
       </c>
       <c r="Q11" t="n">
         <v>2.866097787513176</v>
@@ -2249,19 +2249,19 @@
         <v>1.166778997052196</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3917712914770842</v>
+        <v>0.3917712914770841</v>
       </c>
       <c r="X11" t="n">
         <v>2.284891865545844</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2313905896342222</v>
+        <v>0.2313905896342223</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.003950876684420386</v>
+        <v>0.003950876684420391</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6629118495166406</v>
+        <v>0.6629118495166407</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -2276,13 +2276,13 @@
         <v>0.5274887615658348</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2268929825781579</v>
+        <v>0.2268929825781578</v>
       </c>
       <c r="AG11" t="n">
         <v>0.8955361479132538</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.409449082136205</v>
+        <v>2.409449082136204</v>
       </c>
       <c r="AI11" t="n">
         <v>1.236388119325868</v>
@@ -2291,7 +2291,7 @@
         <v>3.778234937744549</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.27957404989245</v>
+        <v>4.279574049892451</v>
       </c>
       <c r="AL11" t="n">
         <v>2.379750810625358</v>
@@ -2309,13 +2309,13 @@
         <v>7.901607257915279</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.998865918765497</v>
+        <v>4.998865918765496</v>
       </c>
       <c r="AR11" t="n">
         <v>2.758829931003181</v>
       </c>
       <c r="AS11" t="n">
-        <v>7.463954532957858</v>
+        <v>7.463954532957857</v>
       </c>
       <c r="AT11" t="n">
         <v>3.974115918717271</v>
@@ -2374,7 +2374,7 @@
         <v>27.73188561038612</v>
       </c>
       <c r="J12" t="n">
-        <v>9.274429061293866</v>
+        <v>9.274429061293867</v>
       </c>
       <c r="K12" t="n">
         <v>5.382214684774521</v>
@@ -2386,13 +2386,13 @@
         <v>-1.114445880977559</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.986180347958607</v>
+        <v>-1.986180347958609</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5182563246987826</v>
+        <v>0.5182563246987861</v>
       </c>
       <c r="P12" t="n">
-        <v>1.836497279422959</v>
+        <v>1.836497279422958</v>
       </c>
       <c r="Q12" t="n">
         <v>0.6184587135172293</v>
@@ -2416,16 +2416,16 @@
         <v>0.3057808446926962</v>
       </c>
       <c r="X12" t="n">
-        <v>2.02434916653421</v>
+        <v>2.024349166534211</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2452600101100494</v>
+        <v>0.2452600101100493</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.007064316828259519</v>
+        <v>-0.007064316828259523</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.7029028905951864</v>
+        <v>0.7029028905951863</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>1.037669781237494</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.4078921164957443</v>
+        <v>0.4078921164957442</v>
       </c>
       <c r="AG12" t="n">
         <v>1.820108595714802</v>
@@ -2485,10 +2485,10 @@
         <v>2.301049882036673</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9821695773811341</v>
+        <v>0.9821695773811342</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.954433970909882</v>
+        <v>3.954433970909881</v>
       </c>
       <c r="AW12" t="n">
         <v>1.434266043218572</v>
@@ -2526,10 +2526,10 @@
         <v>12.21147217559479</v>
       </c>
       <c r="F13" t="n">
-        <v>23.04658537888275</v>
+        <v>23.04658537888274</v>
       </c>
       <c r="G13" t="n">
-        <v>29.33129246206553</v>
+        <v>29.33129246206554</v>
       </c>
       <c r="H13" t="n">
         <v>20.46977413104038</v>
@@ -2547,7 +2547,7 @@
         <v>31.97161679831164</v>
       </c>
       <c r="M13" t="n">
-        <v>13.88025950633675</v>
+        <v>13.88025950633674</v>
       </c>
       <c r="N13" t="n">
         <v>9.199373304767391</v>
@@ -2559,7 +2559,7 @@
         <v>4.110860746290117</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.986109711157602</v>
+        <v>1.986109711157601</v>
       </c>
       <c r="R13" t="n">
         <v>7.076699950837308</v>
@@ -2568,7 +2568,7 @@
         <v>1.517025031885896</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5100096649902655</v>
+        <v>0.5100096649902656</v>
       </c>
       <c r="U13" t="n">
         <v>3.169606594300435</v>
@@ -2577,19 +2577,19 @@
         <v>0.5035899448448301</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09004517814527147</v>
+        <v>0.09004517814527152</v>
       </c>
       <c r="X13" t="n">
         <v>1.305917291876966</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.07322870792254688</v>
+        <v>0.07322870792254699</v>
       </c>
       <c r="Z13" t="n">
         <v>-0.005499829269906669</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3130525128751167</v>
+        <v>0.3130525128751168</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>1.191523071143468</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.5406485265711626</v>
+        <v>0.5406485265711627</v>
       </c>
       <c r="AG13" t="n">
         <v>1.955756022613314</v>
@@ -2619,7 +2619,7 @@
         <v>6.560293414704098</v>
       </c>
       <c r="AK13" t="n">
-        <v>6.708612543870627</v>
+        <v>6.708612543870628</v>
       </c>
       <c r="AL13" t="n">
         <v>3.918518490209674</v>
@@ -2640,7 +2640,7 @@
         <v>6.44449305011778</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.745108442898937</v>
+        <v>3.745108442898938</v>
       </c>
       <c r="AS13" t="n">
         <v>9.327353178908968</v>
@@ -2661,10 +2661,10 @@
         <v>1.28347722105984</v>
       </c>
       <c r="AY13" t="n">
-        <v>4.571412728213309</v>
+        <v>4.571412728213308</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.652506714101274</v>
+        <v>0.6525067141012743</v>
       </c>
       <c r="BA13" t="n">
         <v>0.0353635685695318</v>
@@ -2747,7 +2747,7 @@
         <v>2.003538071685909</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1742729551017881</v>
+        <v>0.1742729551017882</v>
       </c>
       <c r="Z14" t="n">
         <v>0.006147553102312376</v>
@@ -2792,16 +2792,16 @@
         <v>7.431196114324042</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.287532002923917</v>
+        <v>6.287532002923916</v>
       </c>
       <c r="AO14" t="n">
         <v>3.675205623298819</v>
       </c>
       <c r="AP14" t="n">
-        <v>9.188673787020628</v>
+        <v>9.188673787020626</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.843493479384372</v>
+        <v>5.843493479384373</v>
       </c>
       <c r="AR14" t="n">
         <v>3.363190198298208</v>
@@ -2816,7 +2816,7 @@
         <v>2.527133374843234</v>
       </c>
       <c r="AV14" t="n">
-        <v>6.915287340348144</v>
+        <v>6.915287340348143</v>
       </c>
       <c r="AW14" t="n">
         <v>2.707227088390993</v>
@@ -2825,10 +2825,10 @@
         <v>1.235044304214529</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.43428138651565</v>
+        <v>4.434281386515649</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.6398995716364965</v>
+        <v>0.6398995716364966</v>
       </c>
       <c r="BA14" t="n">
         <v>0.04630824847058171</v>
@@ -2848,31 +2848,31 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.958596140435371</v>
+        <v>2.958596140435369</v>
       </c>
       <c r="E15" t="n">
         <v>1.29236535077858</v>
       </c>
       <c r="F15" t="n">
-        <v>5.074324732316601</v>
+        <v>5.074324732316597</v>
       </c>
       <c r="G15" t="n">
-        <v>6.734266255349755</v>
+        <v>6.734266255349754</v>
       </c>
       <c r="H15" t="n">
-        <v>3.408524828655414</v>
+        <v>3.408524828655416</v>
       </c>
       <c r="I15" t="n">
         <v>10.49670938680697</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.386127186592045</v>
+        <v>-0.3861271865920415</v>
       </c>
       <c r="K15" t="n">
         <v>-1.652093992587902</v>
       </c>
       <c r="L15" t="n">
-        <v>1.713051387579601</v>
+        <v>1.713051387579604</v>
       </c>
       <c r="M15" t="n">
         <v>-3.761939948847022</v>
@@ -2881,10 +2881,10 @@
         <v>-4.13007426728532</v>
       </c>
       <c r="O15" t="n">
-        <v>-2.627467299678312</v>
+        <v>-2.627467299678308</v>
       </c>
       <c r="P15" t="n">
-        <v>2.888793863212278</v>
+        <v>2.888793863212277</v>
       </c>
       <c r="Q15" t="n">
         <v>1.423786602938806</v>
@@ -2911,10 +2911,10 @@
         <v>3.286365476820572</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.4582645039368086</v>
+        <v>0.4582645039368084</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.004019944872416668</v>
+        <v>0.004019944872416671</v>
       </c>
       <c r="AA15" t="n">
         <v>1.174707660578172</v>
@@ -2932,16 +2932,16 @@
         <v>0.2459674839084501</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.02365396488215951</v>
+        <v>0.02365396488215935</v>
       </c>
       <c r="AG15" t="n">
         <v>0.5742096776627732</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.054360744820892</v>
+        <v>1.054360744820891</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.2934529335401859</v>
+        <v>0.293452933540186</v>
       </c>
       <c r="AJ15" t="n">
         <v>2.088393820751878</v>
@@ -2950,10 +2950,10 @@
         <v>1.316944910546526</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.3787720910081136</v>
+        <v>0.3787720910081134</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.605199357438024</v>
+        <v>2.605199357438025</v>
       </c>
       <c r="AN15" t="n">
         <v>0.5612728153379023</v>
@@ -2965,25 +2965,25 @@
         <v>1.644636134304167</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.5947897457520814</v>
+        <v>0.5947897457520805</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.2517289609653459</v>
+        <v>-0.2517289609653464</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.779522224797909</v>
+        <v>1.77952222479791</v>
       </c>
       <c r="AT15" t="n">
         <v>0.8426490958221673</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.007766595004077281</v>
+        <v>-0.007766595004077059</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.049574901793123</v>
+        <v>2.049574901793122</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.7410403216879797</v>
+        <v>0.7410403216879795</v>
       </c>
       <c r="AX15" t="n">
         <v>0.03621745112611796</v>
@@ -2992,7 +2992,7 @@
         <v>1.697846082737914</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.2250972329983373</v>
+        <v>0.2250972329983371</v>
       </c>
       <c r="BA15" t="n">
         <v>-0.03310568533830435</v>
@@ -3012,28 +3012,28 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.69187555124334</v>
+        <v>2.691875551243338</v>
       </c>
       <c r="E16" t="n">
-        <v>1.425286117356777</v>
+        <v>1.425286117356776</v>
       </c>
       <c r="F16" t="n">
-        <v>4.207628356237227</v>
+        <v>4.207628356237225</v>
       </c>
       <c r="G16" t="n">
         <v>8.042089279547191</v>
       </c>
       <c r="H16" t="n">
-        <v>4.853258308990351</v>
+        <v>4.853258308990352</v>
       </c>
       <c r="I16" t="n">
         <v>11.44369510672064</v>
       </c>
       <c r="J16" t="n">
-        <v>7.607899905062816</v>
+        <v>7.607899905062818</v>
       </c>
       <c r="K16" t="n">
-        <v>4.343137737315779</v>
+        <v>4.343137737315778</v>
       </c>
       <c r="L16" t="n">
         <v>11.30490106822601</v>
@@ -3045,10 +3045,10 @@
         <v>3.430263343290004</v>
       </c>
       <c r="O16" t="n">
-        <v>9.798492129609611</v>
+        <v>9.798492129609613</v>
       </c>
       <c r="P16" t="n">
-        <v>4.867218444568604</v>
+        <v>4.867218444568603</v>
       </c>
       <c r="Q16" t="n">
         <v>2.681819026391997</v>
@@ -3069,13 +3069,13 @@
         <v>1.764081878375319</v>
       </c>
       <c r="W16" t="n">
-        <v>0.6575648453940117</v>
+        <v>0.6575648453940116</v>
       </c>
       <c r="X16" t="n">
         <v>3.134861046777067</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3947809147707985</v>
+        <v>0.3947809147707984</v>
       </c>
       <c r="Z16" t="n">
         <v>0.01076666000558833</v>
@@ -3096,7 +3096,7 @@
         <v>0.1963644712867423</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.03906146806136043</v>
+        <v>0.03906146806136035</v>
       </c>
       <c r="AG16" t="n">
         <v>0.420292059344104</v>
@@ -3111,7 +3111,7 @@
         <v>1.862100904383737</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.902193561474409</v>
+        <v>1.90219356147441</v>
       </c>
       <c r="AL16" t="n">
         <v>0.8219313857575123</v>
@@ -3129,7 +3129,7 @@
         <v>4.046165939898556</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.498739186121564</v>
+        <v>2.498739186121563</v>
       </c>
       <c r="AR16" t="n">
         <v>1.071579226841664</v>
@@ -3141,7 +3141,7 @@
         <v>2.268334458404398</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9630479789040305</v>
+        <v>0.9630479789040306</v>
       </c>
       <c r="AV16" t="n">
         <v>3.908249897161824</v>
@@ -3150,13 +3150,13 @@
         <v>1.526002711857506</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.5223222461332583</v>
+        <v>0.5223222461332584</v>
       </c>
       <c r="AY16" t="n">
         <v>2.789288508491378</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.3958292124914518</v>
+        <v>0.3958292124914516</v>
       </c>
       <c r="BA16" t="n">
         <v>0.006317753154283175</v>
@@ -3188,13 +3188,13 @@
         <v>17.96941402736044</v>
       </c>
       <c r="H17" t="n">
-        <v>12.01091471166301</v>
+        <v>12.01091471166302</v>
       </c>
       <c r="I17" t="n">
         <v>24.22783669110769</v>
       </c>
       <c r="J17" t="n">
-        <v>8.989695820118792</v>
+        <v>8.989695820118794</v>
       </c>
       <c r="K17" t="n">
         <v>5.33365431542675</v>
@@ -3203,13 +3203,13 @@
         <v>13.12310123224143</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.4871055042393735</v>
+        <v>-0.4871055042393753</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.416232415047189</v>
+        <v>-1.41623241504719</v>
       </c>
       <c r="O17" t="n">
-        <v>1.193078624888525</v>
+        <v>1.193078624888528</v>
       </c>
       <c r="P17" t="n">
         <v>2.002080198347335</v>
@@ -3236,13 +3236,13 @@
         <v>0.324614615298853</v>
       </c>
       <c r="X17" t="n">
-        <v>2.027725052049306</v>
+        <v>2.027725052049307</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2407099652753488</v>
+        <v>0.2407099652753487</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0005961475002227209</v>
+        <v>0.0005961475002227105</v>
       </c>
       <c r="AA17" t="n">
         <v>0.6707544333438936</v>
@@ -3275,7 +3275,7 @@
         <v>5.510359879775121</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.336224009117326</v>
+        <v>4.336224009117325</v>
       </c>
       <c r="AL17" t="n">
         <v>2.313097642411276</v>
@@ -3299,7 +3299,7 @@
         <v>1.374861274717885</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.738503470451649</v>
+        <v>4.73850347045165</v>
       </c>
       <c r="AT17" t="n">
         <v>2.345904843791525</v>
@@ -3317,10 +3317,10 @@
         <v>0.441039496207737</v>
       </c>
       <c r="AY17" t="n">
-        <v>2.695393731272962</v>
+        <v>2.695393731272963</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.3576396359755087</v>
+        <v>0.3576396359755086</v>
       </c>
       <c r="BA17" t="n">
         <v>-0.01295162301283888</v>
@@ -3352,7 +3352,7 @@
         <v>-11.99278328485316</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.68332476690478</v>
+        <v>-8.683324766904784</v>
       </c>
       <c r="I18" t="n">
         <v>-14.4992209277428</v>
@@ -3361,7 +3361,7 @@
         <v>6.603067925553999</v>
       </c>
       <c r="K18" t="n">
-        <v>4.041344005973891</v>
+        <v>4.041344005973892</v>
       </c>
       <c r="L18" t="n">
         <v>9.590558733135754</v>
@@ -3370,7 +3370,7 @@
         <v>19.53241915490603</v>
       </c>
       <c r="N18" t="n">
-        <v>13.06680256941897</v>
+        <v>13.06680256941898</v>
       </c>
       <c r="O18" t="n">
         <v>25.91709532752261</v>
@@ -3385,7 +3385,7 @@
         <v>13.40307084064592</v>
       </c>
       <c r="S18" t="n">
-        <v>5.536840482828498</v>
+        <v>5.536840482828499</v>
       </c>
       <c r="T18" t="n">
         <v>2.974321298564246</v>
@@ -3424,25 +3424,25 @@
         <v>-0.7942408078631176</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.3844779674001545</v>
+        <v>-0.3844779674001544</v>
       </c>
       <c r="AG18" t="n">
         <v>-1.25942105758893</v>
       </c>
       <c r="AH18" t="n">
-        <v>-2.311156621065662</v>
+        <v>-2.311156621065661</v>
       </c>
       <c r="AI18" t="n">
         <v>-1.368521325727954</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-3.288125329006711</v>
+        <v>-3.28812532900671</v>
       </c>
       <c r="AK18" t="n">
         <v>-1.827060222856839</v>
       </c>
       <c r="AL18" t="n">
-        <v>-1.4454364844899</v>
+        <v>-1.445436484489899</v>
       </c>
       <c r="AM18" t="n">
         <v>-2.093980901094122</v>
@@ -3451,7 +3451,7 @@
         <v>0.9509673292536522</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.02664673864048073</v>
+        <v>0.02664673864048028</v>
       </c>
       <c r="AP18" t="n">
         <v>2.253628801442827</v>
@@ -3460,10 +3460,10 @@
         <v>2.370528759782224</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.080617842890859</v>
+        <v>1.080617842890858</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.06492379450978</v>
+        <v>4.064923794509781</v>
       </c>
       <c r="AT18" t="n">
         <v>2.550282151502768</v>
@@ -3472,22 +3472,22 @@
         <v>1.159036929422234</v>
       </c>
       <c r="AV18" t="n">
-        <v>4.239329312867941</v>
+        <v>4.239329312867942</v>
       </c>
       <c r="AW18" t="n">
         <v>1.819825240554445</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.7333870791102923</v>
+        <v>0.7333870791102922</v>
       </c>
       <c r="AY18" t="n">
         <v>3.203838183121924</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.4798520629369024</v>
+        <v>0.4798520629369022</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.06015644911270636</v>
+        <v>0.06015644911270637</v>
       </c>
       <c r="BB18" t="n">
         <v>1.139708562152052</v>
@@ -3516,7 +3516,7 @@
         <v>27.34281172272967</v>
       </c>
       <c r="H19" t="n">
-        <v>18.62027354344795</v>
+        <v>18.62027354344796</v>
       </c>
       <c r="I19" t="n">
         <v>35.70556017163892</v>
@@ -3531,16 +3531,16 @@
         <v>22.26410413451651</v>
       </c>
       <c r="M19" t="n">
-        <v>3.881372507879362</v>
+        <v>3.881372507879361</v>
       </c>
       <c r="N19" t="n">
-        <v>1.781522677419923</v>
+        <v>1.781522677419921</v>
       </c>
       <c r="O19" t="n">
-        <v>6.61196508612684</v>
+        <v>6.611965086126846</v>
       </c>
       <c r="P19" t="n">
-        <v>2.173831894664886</v>
+        <v>2.173831894664885</v>
       </c>
       <c r="Q19" t="n">
         <v>0.7677790873852239</v>
@@ -3615,16 +3615,16 @@
         <v>5.593761318465678</v>
       </c>
       <c r="AO19" t="n">
-        <v>3.221873825174528</v>
+        <v>3.221873825174527</v>
       </c>
       <c r="AP19" t="n">
         <v>8.242700713648381</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4.545365888207254</v>
+        <v>4.545365888207253</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.43977598333815</v>
+        <v>2.439775983338151</v>
       </c>
       <c r="AS19" t="n">
         <v>6.875781005942533</v>
@@ -3636,7 +3636,7 @@
         <v>1.760449607771193</v>
       </c>
       <c r="AV19" t="n">
-        <v>5.454794518834666</v>
+        <v>5.454794518834665</v>
       </c>
       <c r="AW19" t="n">
         <v>2.023773137463141</v>
@@ -3648,7 +3648,7 @@
         <v>3.486864823882617</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.4813929311426817</v>
+        <v>0.4813929311426818</v>
       </c>
       <c r="BA19" t="n">
         <v>-0.002041052728807342</v>
@@ -3686,22 +3686,22 @@
         <v>21.9930238701205</v>
       </c>
       <c r="J20" t="n">
-        <v>5.572672448680667</v>
+        <v>5.572672448680668</v>
       </c>
       <c r="K20" t="n">
         <v>2.747170381712637</v>
       </c>
       <c r="L20" t="n">
-        <v>9.015251713698754</v>
+        <v>9.015251713698758</v>
       </c>
       <c r="M20" t="n">
         <v>-3.298684887036927</v>
       </c>
       <c r="N20" t="n">
-        <v>-3.585057894192163</v>
+        <v>-3.585057894192165</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.191186905920375</v>
+        <v>-2.191186905920372</v>
       </c>
       <c r="P20" t="n">
         <v>1.750621431264183</v>
@@ -3713,7 +3713,7 @@
         <v>3.178240736222802</v>
       </c>
       <c r="S20" t="n">
-        <v>1.986296045223998</v>
+        <v>1.986296045223999</v>
       </c>
       <c r="T20" t="n">
         <v>0.8620593303971504</v>
@@ -3731,10 +3731,10 @@
         <v>2.309078845909242</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2978275998077829</v>
+        <v>0.2978275998077828</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.001600528917669269</v>
+        <v>-0.001600528917669276</v>
       </c>
       <c r="AA20" t="n">
         <v>0.8087740953110018</v>
@@ -3752,7 +3752,7 @@
         <v>1.013761139436364</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.3846421255650497</v>
+        <v>0.3846421255650496</v>
       </c>
       <c r="AG20" t="n">
         <v>1.798015635336348</v>
@@ -3767,7 +3767,7 @@
         <v>4.871004407377622</v>
       </c>
       <c r="AK20" t="n">
-        <v>3.652651300733908</v>
+        <v>3.652651300733907</v>
       </c>
       <c r="AL20" t="n">
         <v>1.860440415298382</v>
@@ -3785,10 +3785,10 @@
         <v>4.38808200553156</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.050061434022277</v>
+        <v>2.050061434022276</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.7705010074228575</v>
+        <v>0.7705010074228573</v>
       </c>
       <c r="AS20" t="n">
         <v>3.651902148068084</v>
@@ -3797,7 +3797,7 @@
         <v>1.751145629330237</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.6080802325042767</v>
+        <v>0.6080802325042769</v>
       </c>
       <c r="AV20" t="n">
         <v>3.216886391620993</v>
@@ -3809,10 +3809,10 @@
         <v>0.262850041034251</v>
       </c>
       <c r="AY20" t="n">
-        <v>2.272080099277041</v>
+        <v>2.272080099277042</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.2972902022538339</v>
+        <v>0.2972902022538338</v>
       </c>
       <c r="BA20" t="n">
         <v>-0.02648217693184819</v>
@@ -3832,31 +3832,31 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>5.54186285050343</v>
+        <v>5.541862850503428</v>
       </c>
       <c r="E21" t="n">
         <v>3.244582142978755</v>
       </c>
       <c r="F21" t="n">
-        <v>8.263718607312441</v>
+        <v>8.263718607312438</v>
       </c>
       <c r="G21" t="n">
         <v>9.378991957619064</v>
       </c>
       <c r="H21" t="n">
-        <v>5.49890292277542</v>
+        <v>5.498902922775422</v>
       </c>
       <c r="I21" t="n">
         <v>13.60753443761377</v>
       </c>
       <c r="J21" t="n">
-        <v>3.102079495139849</v>
+        <v>3.102079495139851</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9465300334631515</v>
+        <v>0.9465300334631532</v>
       </c>
       <c r="L21" t="n">
-        <v>5.936563889270991</v>
+        <v>5.936563889270994</v>
       </c>
       <c r="M21" t="n">
         <v>-1.107195660234016</v>
@@ -3865,16 +3865,16 @@
         <v>-2.1037357713682</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5880926560831519</v>
+        <v>0.5880926560831554</v>
       </c>
       <c r="P21" t="n">
-        <v>3.098856900564336</v>
+        <v>3.098856900564335</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.538148589553618</v>
+        <v>1.538148589553617</v>
       </c>
       <c r="R21" t="n">
-        <v>4.867368600533756</v>
+        <v>4.867368600533755</v>
       </c>
       <c r="S21" t="n">
         <v>2.871031431080514</v>
@@ -3895,10 +3895,10 @@
         <v>3.004167711581863</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.4022843806130496</v>
+        <v>0.4022843806130495</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.004301505208188098</v>
+        <v>0.004301505208188101</v>
       </c>
       <c r="AA21" t="n">
         <v>1.044725112923887</v>
@@ -3916,13 +3916,13 @@
         <v>0.4255151446350017</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.1177528808476823</v>
+        <v>0.1177528808476822</v>
       </c>
       <c r="AG21" t="n">
         <v>0.8416817625014996</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.524380858322396</v>
+        <v>1.524380858322395</v>
       </c>
       <c r="AI21" t="n">
         <v>0.6054122814516864</v>
@@ -3934,7 +3934,7 @@
         <v>2.047183670825342</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.8599789957680304</v>
+        <v>0.8599789957680303</v>
       </c>
       <c r="AM21" t="n">
         <v>3.581477495916908</v>
@@ -3943,13 +3943,13 @@
         <v>1.534945479861495</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.4604056216225958</v>
+        <v>0.4604056216225956</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.930880053509613</v>
+        <v>2.930880053509612</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.434595027912001</v>
+        <v>1.434595027912</v>
       </c>
       <c r="AR21" t="n">
         <v>0.3346555780834573</v>
@@ -3961,7 +3961,7 @@
         <v>1.426194569844742</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.388898755350038</v>
+        <v>0.3888987553500383</v>
       </c>
       <c r="AV21" t="n">
         <v>2.806071523092266</v>
@@ -3976,7 +3976,7 @@
         <v>2.114265193311062</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.2858284701854901</v>
+        <v>0.2858284701854899</v>
       </c>
       <c r="BA21" t="n">
         <v>-0.02159394861354343</v>
@@ -4005,7 +4005,7 @@
         <v>12.47059374813727</v>
       </c>
       <c r="G22" t="n">
-        <v>23.33210368851405</v>
+        <v>23.33210368851404</v>
       </c>
       <c r="H22" t="n">
         <v>16.68333970209275</v>
@@ -4029,7 +4029,7 @@
         <v>18.38352002139453</v>
       </c>
       <c r="O22" t="n">
-        <v>34.24316350670621</v>
+        <v>34.24316350670622</v>
       </c>
       <c r="P22" t="n">
         <v>7.478916526677688</v>
@@ -4041,7 +4041,7 @@
         <v>11.66172242661076</v>
       </c>
       <c r="S22" t="n">
-        <v>2.619338751041063</v>
+        <v>2.619338751041062</v>
       </c>
       <c r="T22" t="n">
         <v>1.145356792633396</v>
@@ -4059,10 +4059,10 @@
         <v>1.850345698884856</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1130643883531283</v>
+        <v>0.1130643883531285</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.009064036071242919</v>
+        <v>0.009064036071242922</v>
       </c>
       <c r="AA22" t="n">
         <v>0.3869697908252097</v>
@@ -4089,13 +4089,13 @@
         <v>2.842561122621106</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.617093685277004</v>
+        <v>1.617093685277005</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.190745384107712</v>
       </c>
       <c r="AK22" t="n">
-        <v>5.641727512994548</v>
+        <v>5.641727512994549</v>
       </c>
       <c r="AL22" t="n">
         <v>3.332666687781698</v>
@@ -4104,7 +4104,7 @@
         <v>8.27464181224143</v>
       </c>
       <c r="AN22" t="n">
-        <v>8.113056984796277</v>
+        <v>8.113056984796275</v>
       </c>
       <c r="AO22" t="n">
         <v>4.907188381783989</v>
@@ -4113,7 +4113,7 @@
         <v>11.58855837281521</v>
       </c>
       <c r="AQ22" t="n">
-        <v>7.737798362835941</v>
+        <v>7.737798362835942</v>
       </c>
       <c r="AR22" t="n">
         <v>4.650546929612771</v>
@@ -4140,7 +4140,7 @@
         <v>5.511934769423567</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.8113951580605667</v>
+        <v>0.8113951580605669</v>
       </c>
       <c r="BA22" t="n">
         <v>0.08169405257467247</v>
@@ -4172,28 +4172,28 @@
         <v>8.673921490275637</v>
       </c>
       <c r="H23" t="n">
-        <v>4.930246214788021</v>
+        <v>4.930246214788026</v>
       </c>
       <c r="I23" t="n">
         <v>13.14333707904808</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.617290845664424</v>
+        <v>-1.617290845664421</v>
       </c>
       <c r="K23" t="n">
-        <v>-2.486497947400302</v>
+        <v>-2.4864979474003</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2212377608698226</v>
+        <v>0.2212377608698262</v>
       </c>
       <c r="M23" t="n">
         <v>-8.137668181709302</v>
       </c>
       <c r="N23" t="n">
-        <v>-7.210273936342839</v>
+        <v>-7.210273936342841</v>
       </c>
       <c r="O23" t="n">
-        <v>-8.116190092301</v>
+        <v>-8.116190092300997</v>
       </c>
       <c r="P23" t="n">
         <v>1.45468254575335</v>
@@ -4223,10 +4223,10 @@
         <v>2.876006290522982</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4063753128292753</v>
+        <v>0.4063753128292751</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.003581698657149544</v>
+        <v>0.003581698657149539</v>
       </c>
       <c r="AA23" t="n">
         <v>1.044627847681102</v>
@@ -4241,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.8103048369086827</v>
+        <v>0.8103048369086826</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.2672932186688324</v>
+        <v>0.2672932186688323</v>
       </c>
       <c r="AG23" t="n">
         <v>1.508450590119168</v>
@@ -4253,16 +4253,16 @@
         <v>2.043351664955567</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.8897514619825206</v>
+        <v>0.8897514619825208</v>
       </c>
       <c r="AJ23" t="n">
         <v>3.593673736748114</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.052175624490081</v>
+        <v>2.05217562449008</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.8123775728374776</v>
+        <v>0.8123775728374775</v>
       </c>
       <c r="AM23" t="n">
         <v>3.636871431425307</v>
@@ -4274,16 +4274,16 @@
         <v>-0.1180557826402211</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.818061996820379</v>
+        <v>1.818061996820378</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.3849177050793067</v>
+        <v>0.3849177050793062</v>
       </c>
       <c r="AR23" t="n">
         <v>-0.348340885936079</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.501152696598607</v>
+        <v>1.501152696598608</v>
       </c>
       <c r="AT23" t="n">
         <v>0.6176959026012256</v>
@@ -4298,13 +4298,13 @@
         <v>0.5566359659847646</v>
       </c>
       <c r="AX23" t="n">
-        <v>-0.09350332458938282</v>
+        <v>-0.0935033245893826</v>
       </c>
       <c r="AY23" t="n">
         <v>1.459925442399066</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.1746823174830947</v>
+        <v>0.1746823174830944</v>
       </c>
       <c r="BA23" t="n">
         <v>-0.04344919879862488</v>
@@ -4324,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.117117254405994</v>
+        <v>2.11711725440599</v>
       </c>
       <c r="E24" t="n">
         <v>0.967550997259274</v>
       </c>
       <c r="F24" t="n">
-        <v>3.482045609836439</v>
+        <v>3.482045609836437</v>
       </c>
       <c r="G24" t="n">
         <v>8.722746994685625</v>
@@ -4342,13 +4342,13 @@
         <v>12.31970733654024</v>
       </c>
       <c r="J24" t="n">
-        <v>7.679083215356584</v>
+        <v>7.679083215356586</v>
       </c>
       <c r="K24" t="n">
         <v>4.355277829652721</v>
       </c>
       <c r="L24" t="n">
-        <v>11.42056405137472</v>
+        <v>11.42056405137473</v>
       </c>
       <c r="M24" t="n">
         <v>6.236947049610363</v>
@@ -4357,7 +4357,7 @@
         <v>3.28777636006215</v>
       </c>
       <c r="O24" t="n">
-        <v>9.629786554562177</v>
+        <v>9.629786554562179</v>
       </c>
       <c r="P24" t="n">
         <v>4.825822714837509</v>
@@ -4381,7 +4381,7 @@
         <v>1.766965728585692</v>
       </c>
       <c r="W24" t="n">
-        <v>0.6528564027424725</v>
+        <v>0.6528564027424724</v>
       </c>
       <c r="X24" t="n">
         <v>3.134017075398293</v>
@@ -4390,7 +4390,7 @@
         <v>0.3959184259794736</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.008851543923467771</v>
+        <v>0.008851543923467776</v>
       </c>
       <c r="AA24" t="n">
         <v>1.028748149541026</v>
@@ -4408,10 +4408,10 @@
         <v>0.1444847983116018</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01544515971641772</v>
+        <v>0.01544515971641758</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.3384990178573466</v>
+        <v>0.3384990178573467</v>
       </c>
       <c r="AH24" t="n">
         <v>1.017452671804289</v>
@@ -4420,13 +4420,13 @@
         <v>0.3621991515798219</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.86182484955064</v>
+        <v>1.861824849550639</v>
       </c>
       <c r="AK24" t="n">
         <v>1.948859613369808</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.8504810634045361</v>
+        <v>0.850481063404536</v>
       </c>
       <c r="AM24" t="n">
         <v>3.371206550302318</v>
@@ -4453,7 +4453,7 @@
         <v>2.257120717965685</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.9555226437449444</v>
+        <v>0.9555226437449446</v>
       </c>
       <c r="AV24" t="n">
         <v>3.901933549825073</v>
@@ -4468,7 +4468,7 @@
         <v>2.782393987068605</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.3962110159569296</v>
+        <v>0.3962110159569295</v>
       </c>
       <c r="BA24" t="n">
         <v>0.004298935960034792</v>
@@ -4488,25 +4488,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.450357576900913</v>
+        <v>-6.450357576900915</v>
       </c>
       <c r="E25" t="n">
         <v>-4.744534157995024</v>
       </c>
       <c r="F25" t="n">
-        <v>-8.106591656702514</v>
+        <v>-8.106591656702511</v>
       </c>
       <c r="G25" t="n">
         <v>-1.963140626550485</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.83308842859226</v>
+        <v>-1.833088428592262</v>
       </c>
       <c r="I25" t="n">
         <v>-1.733670346138041</v>
       </c>
       <c r="J25" t="n">
-        <v>9.429577430563659</v>
+        <v>9.429577430563661</v>
       </c>
       <c r="K25" t="n">
         <v>5.90268481590809</v>
@@ -4521,7 +4521,7 @@
         <v>10.87304553045574</v>
       </c>
       <c r="O25" t="n">
-        <v>22.29428789028191</v>
+        <v>22.2942878902819</v>
       </c>
       <c r="P25" t="n">
         <v>8.108002647066305</v>
@@ -4551,7 +4551,7 @@
         <v>3.963175161781215</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.4883216961077886</v>
+        <v>0.4883216961077885</v>
       </c>
       <c r="Z25" t="n">
         <v>0.02887919717520761</v>
@@ -4572,28 +4572,28 @@
         <v>-0.4653931779374579</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.2356702644075006</v>
+        <v>-0.2356702644075007</v>
       </c>
       <c r="AG25" t="n">
         <v>-0.7120523921878682</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.9003160678897391</v>
+        <v>-0.9003160678897395</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.6247676520099985</v>
+        <v>-0.6247676520099983</v>
       </c>
       <c r="AJ25" t="n">
         <v>-1.145974434110856</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.01173766652871677</v>
+        <v>0.01173766652871766</v>
       </c>
       <c r="AL25" t="n">
-        <v>-0.3022266767244286</v>
+        <v>-0.302226676724429</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.5334773517968028</v>
+        <v>0.5334773517968037</v>
       </c>
       <c r="AN25" t="n">
         <v>2.088765174287056</v>
@@ -4632,7 +4632,7 @@
         <v>3.327180481974036</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.4932228123326358</v>
+        <v>0.4932228123326357</v>
       </c>
       <c r="BA25" t="n">
         <v>0.04517413482315968</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.840896037852818</v>
+        <v>7.84089603785282</v>
       </c>
       <c r="E26" t="n">
         <v>5.075522623368766</v>
@@ -4661,25 +4661,25 @@
         <v>11.16604959291559</v>
       </c>
       <c r="G26" t="n">
-        <v>6.656361097065326</v>
+        <v>6.656361097065327</v>
       </c>
       <c r="H26" t="n">
-        <v>3.879834493745465</v>
+        <v>3.879834493745467</v>
       </c>
       <c r="I26" t="n">
         <v>10.10348551833534</v>
       </c>
       <c r="J26" t="n">
-        <v>2.817346253964775</v>
+        <v>2.817346253964777</v>
       </c>
       <c r="K26" t="n">
         <v>0.8979696641153811</v>
       </c>
       <c r="L26" t="n">
-        <v>5.473911956676121</v>
+        <v>5.473911956676124</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.4798552834958301</v>
+        <v>-0.4798552834958318</v>
       </c>
       <c r="N26" t="n">
         <v>-1.533787838456782</v>
@@ -4688,13 +4688,13 @@
         <v>1.262914956272898</v>
       </c>
       <c r="P26" t="n">
-        <v>3.264439819488711</v>
+        <v>3.264439819488712</v>
       </c>
       <c r="Q26" t="n">
         <v>1.696955788276872</v>
       </c>
       <c r="R26" t="n">
-        <v>4.969469672533527</v>
+        <v>4.969469672533526</v>
       </c>
       <c r="S26" t="n">
         <v>2.880877578119959</v>
@@ -4715,10 +4715,10 @@
         <v>3.00754359709696</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.397734335778349</v>
+        <v>0.3977343357783488</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01196196953667034</v>
+        <v>0.01196196953667033</v>
       </c>
       <c r="AA26" t="n">
         <v>1.012576655672594</v>
@@ -4751,7 +4751,7 @@
         <v>2.72857745764867</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.86051946324375</v>
+        <v>1.860519463243749</v>
       </c>
       <c r="AL26" t="n">
         <v>0.7457802851799357</v>
@@ -4763,25 +4763,25 @@
         <v>1.510771289384361</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.4381524410986009</v>
+        <v>0.4381524410986006</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.934170493109225</v>
+        <v>2.934170493109224</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.453884141747826</v>
+        <v>1.453884141747825</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.4065584910683515</v>
+        <v>0.4065584910683511</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.879595463160069</v>
+        <v>2.87959546316007</v>
       </c>
       <c r="AT26" t="n">
         <v>1.471049531599594</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.4190000959863822</v>
+        <v>0.4190000959863824</v>
       </c>
       <c r="AV26" t="n">
         <v>2.831336912439272</v>
@@ -4796,10 +4796,10 @@
         <v>2.141843279002156</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.2843012563235784</v>
+        <v>0.2843012563235782</v>
       </c>
       <c r="BA26" t="n">
-        <v>-0.0135186798365499</v>
+        <v>-0.01351867983654989</v>
       </c>
       <c r="BB26" t="n">
         <v>0.8216989274857682</v>
@@ -4816,19 +4816,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>28.45942134854398</v>
+        <v>28.45942134854399</v>
       </c>
       <c r="E27" t="n">
         <v>19.7544978112391</v>
       </c>
       <c r="F27" t="n">
-        <v>37.53755363102485</v>
+        <v>37.53755363102484</v>
       </c>
       <c r="G27" t="n">
         <v>37.29454922274791</v>
       </c>
       <c r="H27" t="n">
-        <v>25.94181954685052</v>
+        <v>25.94181954685053</v>
       </c>
       <c r="I27" t="n">
         <v>48.07788688477206</v>
@@ -4840,25 +4840,25 @@
         <v>15.015147388188</v>
       </c>
       <c r="L27" t="n">
-        <v>29.68196744378439</v>
+        <v>29.68196744378438</v>
       </c>
       <c r="M27" t="n">
         <v>4.187792475504907</v>
       </c>
       <c r="N27" t="n">
-        <v>2.184052067285223</v>
+        <v>2.184052067285221</v>
       </c>
       <c r="O27" t="n">
-        <v>6.879539904837342</v>
+        <v>6.879539904837349</v>
       </c>
       <c r="P27" t="n">
-        <v>0.994263732985698</v>
+        <v>0.9942637329856963</v>
       </c>
       <c r="Q27" t="n">
         <v>-0.07250718928953681</v>
       </c>
       <c r="R27" t="n">
-        <v>2.910949902780995</v>
+        <v>2.910949902780996</v>
       </c>
       <c r="S27" t="n">
         <v>0.1939666530513491</v>
@@ -4867,7 +4867,7 @@
         <v>-0.2576741743549136</v>
       </c>
       <c r="U27" t="n">
-        <v>1.238832284588639</v>
+        <v>1.23883228458864</v>
       </c>
       <c r="V27" t="n">
         <v>-0.02253918419190781</v>
@@ -4876,13 +4876,13 @@
         <v>-0.1652935668311695</v>
       </c>
       <c r="X27" t="n">
-        <v>0.48013509100914</v>
+        <v>0.4801350910091404</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.02372460704046864</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.01786701819316427</v>
+        <v>-0.01786701819316428</v>
       </c>
       <c r="AA27" t="n">
         <v>0.1011155729579157</v>
@@ -4900,7 +4900,7 @@
         <v>2.00891973929309</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.8862291840748519</v>
+        <v>0.886229184074852</v>
       </c>
       <c r="AG27" t="n">
         <v>3.333479598605559</v>
@@ -4933,13 +4933,13 @@
         <v>10.98532397497587</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.995815298018492</v>
+        <v>5.995815298018493</v>
       </c>
       <c r="AR27" t="n">
         <v>3.444030223480131</v>
       </c>
       <c r="AS27" t="n">
-        <v>8.743670290553176</v>
+        <v>8.743670290553174</v>
       </c>
       <c r="AT27" t="n">
         <v>4.342996142273753</v>
@@ -4948,7 +4948,7 @@
         <v>2.368771100120461</v>
       </c>
       <c r="AV27" t="n">
-        <v>6.615789661325785</v>
+        <v>6.615789661325784</v>
       </c>
       <c r="AW27" t="n">
         <v>2.424455499915798</v>
@@ -4960,7 +4960,7 @@
         <v>4.054204318998972</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.5539677038636562</v>
+        <v>0.5539677038636565</v>
       </c>
       <c r="BA27" t="n">
         <v>0.002563638483400445</v>
@@ -4980,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.275638368376613</v>
+        <v>1.275638368376611</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6427366437399673</v>
+        <v>0.6427366437399669</v>
       </c>
       <c r="F28" t="n">
         <v>1.889766487356276</v>
@@ -4992,7 +4992,7 @@
         <v>10.7112277340215</v>
       </c>
       <c r="H28" t="n">
-        <v>7.107526003840265</v>
+        <v>7.107526003840264</v>
       </c>
       <c r="I28" t="n">
         <v>14.14270528627352</v>
@@ -5013,10 +5013,10 @@
         <v>10.70562698740962</v>
       </c>
       <c r="O28" t="n">
-        <v>21.88704040880266</v>
+        <v>21.88704040880267</v>
       </c>
       <c r="P28" t="n">
-        <v>6.76285156646274</v>
+        <v>6.762851566462739</v>
       </c>
       <c r="Q28" t="n">
         <v>3.860447850483561</v>
@@ -5037,16 +5037,16 @@
         <v>1.627021955204691</v>
       </c>
       <c r="W28" t="n">
-        <v>0.61117747703864</v>
+        <v>0.6111774770386399</v>
       </c>
       <c r="X28" t="n">
         <v>2.981668673976014</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3335723480221386</v>
+        <v>0.3335723480221387</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01368314297451887</v>
+        <v>0.01368314297451888</v>
       </c>
       <c r="AA28" t="n">
         <v>0.8827886385038797</v>
@@ -5064,13 +5064,13 @@
         <v>0.04300211271475346</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.00723635455067595</v>
+        <v>0.007236354550675839</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.1027883580519199</v>
+        <v>0.10278835805192</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.9805445987876865</v>
+        <v>0.9805445987876861</v>
       </c>
       <c r="AI28" t="n">
         <v>0.4309453696194578</v>
@@ -5079,7 +5079,7 @@
         <v>1.635255878349401</v>
       </c>
       <c r="AK28" t="n">
-        <v>2.580774316193089</v>
+        <v>2.58077431619309</v>
       </c>
       <c r="AL28" t="n">
         <v>1.322190035800959</v>
@@ -5103,7 +5103,7 @@
         <v>2.358935958156227</v>
       </c>
       <c r="AS28" t="n">
-        <v>6.682666570730781</v>
+        <v>6.68266657073078</v>
       </c>
       <c r="AT28" t="n">
         <v>3.671592340109202</v>
@@ -5156,19 +5156,19 @@
         <v>13.33620758575526</v>
       </c>
       <c r="H29" t="n">
-        <v>8.071036029950584</v>
+        <v>8.071036029950587</v>
       </c>
       <c r="I29" t="n">
         <v>19.29401369056761</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.563721263561732</v>
+        <v>-2.563721263561728</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.27234153286493</v>
+        <v>-3.272341532864928</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.8079239332450854</v>
+        <v>-0.8079239332450818</v>
       </c>
       <c r="M29" t="n">
         <v>-13.14073679130977</v>
@@ -5177,16 +5177,16 @@
         <v>-10.86042153831178</v>
       </c>
       <c r="O29" t="n">
-        <v>-14.27973518511343</v>
+        <v>-14.27973518511342</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.1450116906299534</v>
+        <v>-0.1450116906299543</v>
       </c>
       <c r="Q29" t="n">
         <v>-0.5554266981467046</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3589219287601288</v>
+        <v>0.3589219287601271</v>
       </c>
       <c r="S29" t="n">
         <v>1.776102322204931</v>
@@ -5195,7 +5195,7 @@
         <v>0.7698755710629241</v>
       </c>
       <c r="U29" t="n">
-        <v>2.838730473703607</v>
+        <v>2.838730473703608</v>
       </c>
       <c r="V29" t="n">
         <v>1.375012672509209</v>
@@ -5207,10 +5207,10 @@
         <v>2.462271218710295</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.3590361665564427</v>
+        <v>0.3590361665564424</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.004517011886599814</v>
+        <v>-0.004517011886599824</v>
       </c>
       <c r="AA29" t="n">
         <v>0.9466964920353247</v>
@@ -5228,10 +5228,10 @@
         <v>1.167123498008353</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.4164672390757342</v>
+        <v>0.4164672390757341</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.115519336628533</v>
+        <v>2.115519336628532</v>
       </c>
       <c r="AH29" t="n">
         <v>3.008257344860113</v>
@@ -5243,7 +5243,7 @@
         <v>5.097849433411959</v>
       </c>
       <c r="AK29" t="n">
-        <v>2.974070546015228</v>
+        <v>2.974070546015227</v>
       </c>
       <c r="AL29" t="n">
         <v>1.360181765254936</v>
@@ -5264,7 +5264,7 @@
         <v>0.1557565505707066</v>
       </c>
       <c r="AR29" t="n">
-        <v>-0.5168557238917058</v>
+        <v>-0.5168557238917062</v>
       </c>
       <c r="AS29" t="n">
         <v>1.204820613761179</v>
@@ -5273,7 +5273,7 @@
         <v>0.3478877476254323</v>
       </c>
       <c r="AU29" t="n">
-        <v>-0.347683671085659</v>
+        <v>-0.3476836710856586</v>
       </c>
       <c r="AV29" t="n">
         <v>1.370844090925794</v>
@@ -5288,7 +5288,7 @@
         <v>1.194426716369124</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0.1257946158297637</v>
+        <v>0.1257946158297634</v>
       </c>
       <c r="BA29" t="n">
         <v>-0.06186798103593894</v>
@@ -5359,7 +5359,7 @@
         <v>1.113564538367692</v>
       </c>
       <c r="U30" t="n">
-        <v>4.073966151872114</v>
+        <v>4.073966151872115</v>
       </c>
       <c r="V30" t="n">
         <v>1.295187369591705</v>
@@ -5371,13 +5371,13 @@
         <v>2.44061615248322</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2891866227568566</v>
+        <v>0.2891866227568565</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.00677974196185152</v>
+        <v>0.006779741961851516</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.776722903302494</v>
+        <v>0.7767229033024942</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
@@ -5389,10 +5389,10 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.8364901390632455</v>
+        <v>0.8364901390632454</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.3295670211236705</v>
+        <v>0.3295670211236706</v>
       </c>
       <c r="AG30" t="n">
         <v>1.45841897366571</v>
@@ -5407,7 +5407,7 @@
         <v>4.005908128278179</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.460995139487577</v>
+        <v>3.460995139487576</v>
       </c>
       <c r="AL30" t="n">
         <v>1.793843127640841</v>
@@ -5416,22 +5416,22 @@
         <v>5.45659526782158</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.476247261289397</v>
+        <v>3.476247261289398</v>
       </c>
       <c r="AO30" t="n">
         <v>1.7730116251983</v>
       </c>
       <c r="AP30" t="n">
-        <v>5.504190501820406</v>
+        <v>5.504190501820405</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.119027870690796</v>
+        <v>3.119027870690795</v>
       </c>
       <c r="AR30" t="n">
         <v>1.525400384427288</v>
       </c>
       <c r="AS30" t="n">
-        <v>5.030344914629546</v>
+        <v>5.030344914629547</v>
       </c>
       <c r="AT30" t="n">
         <v>2.604499258328605</v>
@@ -5440,7 +5440,7 @@
         <v>1.189754791217355</v>
       </c>
       <c r="AV30" t="n">
-        <v>4.325381113027304</v>
+        <v>4.325381113027303</v>
       </c>
       <c r="AW30" t="n">
         <v>1.634141715232227</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>8.166446679024769</v>
+        <v>8.166446679024771</v>
       </c>
       <c r="E31" t="n">
         <v>5.920375588432825</v>
@@ -5487,10 +5487,10 @@
         <v>10.07398087030781</v>
       </c>
       <c r="I31" t="n">
-        <v>17.73631869842831</v>
+        <v>17.7363186984283</v>
       </c>
       <c r="J31" t="n">
-        <v>22.5071570498877</v>
+        <v>22.50715704988769</v>
       </c>
       <c r="K31" t="n">
         <v>15.52347742698463</v>
@@ -5508,7 +5508,7 @@
         <v>28.8242770454679</v>
       </c>
       <c r="P31" t="n">
-        <v>7.307164830360137</v>
+        <v>7.307164830360138</v>
       </c>
       <c r="Q31" t="n">
         <v>4.208277222755624</v>
@@ -5517,7 +5517,7 @@
         <v>11.02737971517602</v>
       </c>
       <c r="S31" t="n">
-        <v>3.080520364478714</v>
+        <v>3.080520364478713</v>
       </c>
       <c r="T31" t="n">
         <v>1.463999689906025</v>
@@ -5535,7 +5535,7 @@
         <v>2.419805057634918</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2181995677485953</v>
+        <v>0.2181995677485954</v>
       </c>
       <c r="Z31" t="n">
         <v>0.01999161189242341</v>
@@ -5556,7 +5556,7 @@
         <v>0.5577364530932782</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.2662831115165496</v>
+        <v>0.2662831115165498</v>
       </c>
       <c r="AG31" t="n">
         <v>0.8831116521896449</v>
@@ -5586,7 +5586,7 @@
         <v>3.555639312291293</v>
       </c>
       <c r="AP31" t="n">
-        <v>9.021006193803737</v>
+        <v>9.021006193803736</v>
       </c>
       <c r="AQ31" t="n">
         <v>6.087121469269841</v>
@@ -5636,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.442667895577944</v>
+        <v>2.442667895577942</v>
       </c>
       <c r="E32" t="n">
         <v>1.812403962323333</v>
       </c>
       <c r="F32" t="n">
-        <v>2.761298493471163</v>
+        <v>2.761298493471164</v>
       </c>
       <c r="G32" t="n">
         <v>16.02509189076511</v>
@@ -5660,7 +5660,7 @@
         <v>18.98078559252196</v>
       </c>
       <c r="L32" t="n">
-        <v>35.17476486380508</v>
+        <v>35.17476486380507</v>
       </c>
       <c r="M32" t="n">
         <v>28.73263024095359</v>
@@ -5699,10 +5699,10 @@
         <v>2.546278535936252</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2163836579497199</v>
+        <v>0.2163836579497201</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01688118627922085</v>
+        <v>0.01688118627922086</v>
       </c>
       <c r="AA32" t="n">
         <v>0.6148836941252719</v>
@@ -5720,28 +5720,28 @@
         <v>0.06918741486931607</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.06951015700551419</v>
+        <v>0.06951015700551413</v>
       </c>
       <c r="AG32" t="n">
         <v>0.05275674159846233</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.407635329215056</v>
+        <v>1.407635329215055</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.7910879102411089</v>
+        <v>0.791087910241109</v>
       </c>
       <c r="AJ32" t="n">
         <v>2.047490269879466</v>
       </c>
       <c r="AK32" t="n">
-        <v>3.989593831190584</v>
+        <v>3.989593831190586</v>
       </c>
       <c r="AL32" t="n">
         <v>2.303655590604322</v>
       </c>
       <c r="AM32" t="n">
-        <v>5.956937579562885</v>
+        <v>5.956937579562886</v>
       </c>
       <c r="AN32" t="n">
         <v>6.999433330240006</v>
@@ -5753,10 +5753,10 @@
         <v>10.13217903069316</v>
       </c>
       <c r="AQ32" t="n">
-        <v>7.127154235184622</v>
+        <v>7.127154235184623</v>
       </c>
       <c r="AR32" t="n">
-        <v>4.232677228519594</v>
+        <v>4.232677228519595</v>
       </c>
       <c r="AS32" t="n">
         <v>10.21185878876172</v>
@@ -5765,7 +5765,7 @@
         <v>5.658395695836582</v>
       </c>
       <c r="AU32" t="n">
-        <v>3.271241136438018</v>
+        <v>3.271241136438017</v>
       </c>
       <c r="AV32" t="n">
         <v>8.356831119851366</v>
@@ -5777,10 +5777,10 @@
         <v>1.672695746597687</v>
       </c>
       <c r="AY32" t="n">
-        <v>5.361014384880361</v>
+        <v>5.36101438488036</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.7995516225267449</v>
+        <v>0.7995516225267452</v>
       </c>
       <c r="BA32" t="n">
         <v>0.0886010980872256</v>
@@ -5845,7 +5845,7 @@
         <v>8.816878351148148</v>
       </c>
       <c r="S33" t="n">
-        <v>2.406683491262134</v>
+        <v>2.406683491262133</v>
       </c>
       <c r="T33" t="n">
         <v>1.046426849065603</v>
@@ -5863,10 +5863,10 @@
         <v>2.002694100307135</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.1754104663104633</v>
+        <v>0.1754104663104634</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.004232437020191817</v>
+        <v>0.004232437020191819</v>
       </c>
       <c r="AA33" t="n">
         <v>0.5329293018623558</v>
@@ -5884,7 +5884,7 @@
         <v>0.7070364222923864</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.3209918985436807</v>
+        <v>0.3209918985436806</v>
       </c>
       <c r="AG33" t="n">
         <v>1.16300823275198</v>
@@ -5899,7 +5899,7 @@
         <v>4.41731435530895</v>
       </c>
       <c r="AK33" t="n">
-        <v>5.009812810171266</v>
+        <v>5.009812810171267</v>
       </c>
       <c r="AL33" t="n">
         <v>2.860957715385275</v>
@@ -5932,7 +5932,7 @@
         <v>2.519608039684148</v>
       </c>
       <c r="AV33" t="n">
-        <v>6.908970993011392</v>
+        <v>6.908970993011391</v>
       </c>
       <c r="AW33" t="n">
         <v>2.705016900346644</v>
@@ -5944,7 +5944,7 @@
         <v>4.427386865092876</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.6402813751019744</v>
+        <v>0.6402813751019745</v>
       </c>
       <c r="BA33" t="n">
         <v>0.04428943127633332</v>
@@ -5964,43 +5964,43 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22.43389610885185</v>
+        <v>22.43389610885186</v>
       </c>
       <c r="E34" t="n">
         <v>15.27105279493108</v>
       </c>
       <c r="F34" t="n">
-        <v>30.1461202452397</v>
+        <v>30.14612024523969</v>
       </c>
       <c r="G34" t="n">
         <v>27.31839897052468</v>
       </c>
       <c r="H34" t="n">
-        <v>18.45638394271804</v>
+        <v>18.45638394271805</v>
       </c>
       <c r="I34" t="n">
         <v>36.11737504289285</v>
       </c>
       <c r="J34" t="n">
-        <v>11.74502201483468</v>
+        <v>11.74502201483469</v>
       </c>
       <c r="K34" t="n">
-        <v>7.182855033024005</v>
+        <v>7.182855033024007</v>
       </c>
       <c r="L34" t="n">
-        <v>16.66444098926406</v>
+        <v>16.66444098926407</v>
       </c>
       <c r="M34" t="n">
         <v>-3.305935107780474</v>
       </c>
       <c r="N34" t="n">
-        <v>-3.467502470782572</v>
+        <v>-3.467502470782573</v>
       </c>
       <c r="O34" t="n">
-        <v>-2.261023237304745</v>
+        <v>-2.261023237304737</v>
       </c>
       <c r="P34" t="n">
-        <v>0.4882618101228067</v>
+        <v>0.4882618101228058</v>
       </c>
       <c r="Q34" t="n">
         <v>-0.2964877500915288</v>
@@ -6015,7 +6015,7 @@
         <v>0.1798130661526314</v>
       </c>
       <c r="U34" t="n">
-        <v>1.926244345136855</v>
+        <v>1.926244345136856</v>
       </c>
       <c r="V34" t="n">
         <v>0.5776475473415877</v>
@@ -6027,10 +6027,10 @@
         <v>1.329260300861589</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1408032293047827</v>
+        <v>0.1408032293047826</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.01296635095411688</v>
+        <v>-0.0129663509541169</v>
       </c>
       <c r="AA34" t="n">
         <v>0.4669518729823009</v>
@@ -6063,7 +6063,7 @@
         <v>7.652786829504074</v>
       </c>
       <c r="AK34" t="n">
-        <v>6.128355846607484</v>
+        <v>6.128355846607482</v>
       </c>
       <c r="AL34" t="n">
         <v>3.427757772529723</v>
@@ -6087,7 +6087,7 @@
         <v>1.738803791072391</v>
       </c>
       <c r="AS34" t="n">
-        <v>5.510810155359663</v>
+        <v>5.510810155359664</v>
       </c>
       <c r="AT34" t="n">
         <v>2.626000941522167</v>
@@ -6096,7 +6096,7 @@
         <v>1.201351054535373</v>
       </c>
       <c r="AV34" t="n">
-        <v>4.36524883943861</v>
+        <v>4.365248839438609</v>
       </c>
       <c r="AW34" t="n">
         <v>1.540194858548944</v>
@@ -6105,7 +6105,7 @@
         <v>0.4894673041083811</v>
       </c>
       <c r="AY34" t="n">
-        <v>2.825630551547848</v>
+        <v>2.825630551547849</v>
       </c>
       <c r="AZ34" t="n">
         <v>0.3706285819057643</v>
@@ -6128,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.55037126373414</v>
+        <v>7.550371263734138</v>
       </c>
       <c r="E35" t="n">
-        <v>4.739063815081428</v>
+        <v>4.739063815081427</v>
       </c>
       <c r="F35" t="n">
         <v>10.72752973590749</v>
@@ -6140,16 +6140,16 @@
         <v>12.70437537502681</v>
       </c>
       <c r="H35" t="n">
-        <v>7.994048124152913</v>
+        <v>7.994048124152914</v>
       </c>
       <c r="I35" t="n">
         <v>17.59437171824017</v>
       </c>
       <c r="J35" t="n">
-        <v>6.66146948716551</v>
+        <v>6.661469487165512</v>
       </c>
       <c r="K35" t="n">
-        <v>3.557294151851151</v>
+        <v>3.55729415185115</v>
       </c>
       <c r="L35" t="n">
         <v>10.2757393741111</v>
@@ -6161,22 +6161,22 @@
         <v>-0.2198842586789347</v>
       </c>
       <c r="O35" t="n">
-        <v>3.634947036797183</v>
+        <v>3.634947036797186</v>
       </c>
       <c r="P35" t="n">
-        <v>3.2675242081853</v>
+        <v>3.267524208185299</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.612808776487615</v>
+        <v>1.612808776487614</v>
       </c>
       <c r="R35" t="n">
-        <v>5.235590492251015</v>
+        <v>5.235590492251014</v>
       </c>
       <c r="S35" t="n">
         <v>2.645363697881411</v>
       </c>
       <c r="T35" t="n">
-        <v>1.239155065836174</v>
+        <v>1.239155065836173</v>
       </c>
       <c r="U35" t="n">
         <v>4.315293361880794</v>
@@ -6185,7 +6185,7 @@
         <v>1.503901164067323</v>
       </c>
       <c r="W35" t="n">
-        <v>0.5251870302542521</v>
+        <v>0.525187030254252</v>
       </c>
       <c r="X35" t="n">
         <v>2.721125974964381</v>
@@ -6194,7 +6194,7 @@
         <v>0.3474417684979658</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.002667949461838971</v>
+        <v>0.002667949461838973</v>
       </c>
       <c r="AA35" t="n">
         <v>0.9227796795824253</v>
@@ -6218,7 +6218,7 @@
         <v>1.027360805853469</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.988379661766368</v>
+        <v>1.988379661766367</v>
       </c>
       <c r="AI35" t="n">
         <v>0.8968086040337018</v>
@@ -6245,10 +6245,10 @@
         <v>4.216301362815155</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.269578031612964</v>
+        <v>2.269578031612963</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.9030643888860375</v>
+        <v>0.9030643888860372</v>
       </c>
       <c r="AS35" t="n">
         <v>3.939252953586449</v>
@@ -6257,7 +6257,7 @@
         <v>1.998526303428604</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.7780387705450675</v>
+        <v>0.7780387705450678</v>
       </c>
       <c r="AV35" t="n">
         <v>3.556251797054657</v>
@@ -6269,10 +6269,10 @@
         <v>0.392581034639087</v>
       </c>
       <c r="AY35" t="n">
-        <v>2.523789782461436</v>
+        <v>2.523789782461437</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.3469415108381207</v>
+        <v>0.3469415108381206</v>
       </c>
       <c r="BA35" t="n">
         <v>-0.01210102908303089</v>
@@ -6292,19 +6292,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.00809904727684</v>
+        <v>-3.008099047276843</v>
       </c>
       <c r="E36" t="n">
         <v>-2.213305933887182</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.9045521459132</v>
+        <v>-3.904552145913199</v>
       </c>
       <c r="G36" t="n">
         <v>5.36828392340344</v>
       </c>
       <c r="H36" t="n">
-        <v>3.561969081420214</v>
+        <v>3.561969081420212</v>
       </c>
       <c r="I36" t="n">
         <v>7.116016444934379</v>
@@ -6358,7 +6358,7 @@
         <v>0.3797739830862962</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.02369696960038879</v>
+        <v>0.0236969696003888</v>
       </c>
       <c r="AA36" t="n">
         <v>0.9726828798368339</v>
@@ -6382,7 +6382,7 @@
         <v>-0.4224873469706875</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.02166022894067243</v>
+        <v>0.02166022894067221</v>
       </c>
       <c r="AI36" t="n">
         <v>-0.0625380321754524</v>
@@ -6391,7 +6391,7 @@
         <v>0.1313562365186538</v>
       </c>
       <c r="AK36" t="n">
-        <v>1.612213342772543</v>
+        <v>1.612213342772544</v>
       </c>
       <c r="AL36" t="n">
         <v>0.745836165736476</v>
@@ -6406,7 +6406,7 @@
         <v>2.145720178232057</v>
       </c>
       <c r="AP36" t="n">
-        <v>6.27673771267644</v>
+        <v>6.276737712676441</v>
       </c>
       <c r="AQ36" t="n">
         <v>4.627027502540689</v>
@@ -6415,7 +6415,7 @@
         <v>2.545426524358078</v>
       </c>
       <c r="AS36" t="n">
-        <v>6.98348929222774</v>
+        <v>6.983489292227739</v>
       </c>
       <c r="AT36" t="n">
         <v>3.952614235523709</v>
@@ -6436,7 +6436,7 @@
         <v>4.139335138852011</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.615830697103375</v>
+        <v>0.6158306971033751</v>
       </c>
       <c r="BA36" t="n">
         <v>0.06214115668993637</v>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>11.54987515666892</v>
+        <v>11.54987515666893</v>
       </c>
       <c r="E37" t="n">
         <v>7.473830080898411</v>
@@ -6468,31 +6468,31 @@
         <v>12.67996262282182</v>
       </c>
       <c r="H37" t="n">
-        <v>7.830158523423004</v>
+        <v>7.830158523423006</v>
       </c>
       <c r="I37" t="n">
         <v>18.00618658949409</v>
       </c>
       <c r="J37" t="n">
-        <v>2.013282456655006</v>
+        <v>2.013282456655009</v>
       </c>
       <c r="K37" t="n">
         <v>0.1364062633246395</v>
       </c>
       <c r="L37" t="n">
-        <v>4.676076228858648</v>
+        <v>4.676076228858651</v>
       </c>
       <c r="M37" t="n">
         <v>-5.796594081465386</v>
       </c>
       <c r="N37" t="n">
-        <v>-5.468909406881428</v>
+        <v>-5.46890940688143</v>
       </c>
       <c r="O37" t="n">
-        <v>-5.238041286634406</v>
+        <v>-5.238041286634402</v>
       </c>
       <c r="P37" t="n">
-        <v>1.58195412364322</v>
+        <v>1.581954123643219</v>
       </c>
       <c r="Q37" t="n">
         <v>0.5485419390108617</v>
@@ -6519,10 +6519,10 @@
         <v>2.592120582526725</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.3526702119228667</v>
+        <v>0.3526702119228665</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.302682867985761e-05</v>
+        <v>3.30268286798524e-05</v>
       </c>
       <c r="AA37" t="n">
         <v>0.9307195286524634</v>
@@ -6540,7 +6540,7 @@
         <v>0.8860931516849531</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.3141595179444697</v>
+        <v>0.3141595179444696</v>
       </c>
       <c r="AG37" t="n">
         <v>1.612336591984379</v>
@@ -6555,31 +6555,31 @@
         <v>4.232201044646319</v>
       </c>
       <c r="AK37" t="n">
-        <v>2.875746488559694</v>
+        <v>2.875746488559693</v>
       </c>
       <c r="AL37" t="n">
         <v>1.350683832891442</v>
       </c>
       <c r="AM37" t="n">
-        <v>4.76802658001038</v>
+        <v>4.768026580010381</v>
       </c>
       <c r="AN37" t="n">
         <v>1.662809374655605</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.5521554569751284</v>
+        <v>0.5521554569751281</v>
       </c>
       <c r="AP37" t="n">
         <v>3.102660696226018</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.215078430321314</v>
+        <v>1.215078430321313</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.2020921966202778</v>
+        <v>0.2020921966202773</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.574282103003579</v>
+        <v>2.57428210300358</v>
       </c>
       <c r="AT37" t="n">
         <v>1.178813895746375</v>
@@ -6600,7 +6600,7 @@
         <v>1.862555510126667</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.2361771616012033</v>
+        <v>0.2361771616012031</v>
       </c>
       <c r="BA37" t="n">
         <v>-0.03597509646236072</v>
@@ -6650,10 +6650,10 @@
         <v>7.006622079046005</v>
       </c>
       <c r="N38" t="n">
-        <v>4.235322123020606</v>
+        <v>4.235322123020604</v>
       </c>
       <c r="O38" t="n">
-        <v>10.33364176703061</v>
+        <v>10.33364176703062</v>
       </c>
       <c r="P38" t="n">
         <v>2.508082121210226</v>
@@ -6677,7 +6677,7 @@
         <v>0.4319360735398405</v>
       </c>
       <c r="W38" t="n">
-        <v>0.06352950403346469</v>
+        <v>0.06352950403346475</v>
       </c>
       <c r="X38" t="n">
         <v>1.178599842196858</v>
@@ -6686,7 +6686,7 @@
         <v>0.07618212893009743</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.004304519738824663</v>
+        <v>-0.004304519738824676</v>
       </c>
       <c r="AA38" t="n">
         <v>0.3049181333195085</v>
@@ -6704,22 +6704,22 @@
         <v>1.628192436392289</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.7138051727372554</v>
+        <v>0.7138051727372555</v>
       </c>
       <c r="AG38" t="n">
         <v>2.704317891717739</v>
       </c>
       <c r="AH38" t="n">
-        <v>4.83336579567693</v>
+        <v>4.833365795676931</v>
       </c>
       <c r="AI38" t="n">
         <v>2.658692422804099</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7.426769967969031</v>
+        <v>7.426769967969032</v>
       </c>
       <c r="AK38" t="n">
-        <v>6.666938445639969</v>
+        <v>6.666938445639968</v>
       </c>
       <c r="AL38" t="n">
         <v>3.842367389632098</v>
@@ -6737,7 +6737,7 @@
         <v>9.531412462553535</v>
       </c>
       <c r="AQ38" t="n">
-        <v>5.399638005744041</v>
+        <v>5.399638005744042</v>
       </c>
       <c r="AR38" t="n">
         <v>3.080087707125625</v>
@@ -6752,7 +6752,7 @@
         <v>2.179690963602567</v>
       </c>
       <c r="AV38" t="n">
-        <v>6.230240182144064</v>
+        <v>6.230240182144063</v>
       </c>
       <c r="AW38" t="n">
         <v>2.32736743676282</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>19.85062939878379</v>
+        <v>19.8506293987838</v>
       </c>
       <c r="E39" t="n">
         <v>13.3188360027309</v>
@@ -6799,28 +6799,28 @@
         <v>16.36600584859804</v>
       </c>
       <c r="I39" t="n">
-        <v>33.00654999208604</v>
+        <v>33.00654999208605</v>
       </c>
       <c r="J39" t="n">
-        <v>8.256815333102791</v>
+        <v>8.256815333102793</v>
       </c>
       <c r="K39" t="n">
         <v>4.584231006972951</v>
       </c>
       <c r="L39" t="n">
-        <v>12.44092848757267</v>
+        <v>12.44092848757268</v>
       </c>
       <c r="M39" t="n">
         <v>-5.960679396393477</v>
       </c>
       <c r="N39" t="n">
-        <v>-5.493840966699691</v>
+        <v>-5.493840966699693</v>
       </c>
       <c r="O39" t="n">
-        <v>-5.476583193066212</v>
+        <v>-5.476583193066205</v>
       </c>
       <c r="P39" t="n">
-        <v>0.2781987727707484</v>
+        <v>0.2781987727707476</v>
       </c>
       <c r="Q39" t="n">
         <v>-0.4108497367063397</v>
@@ -6847,10 +6847,10 @@
         <v>1.611458066100298</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1967833526285416</v>
+        <v>0.1967833526285415</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.01324791128988832</v>
+        <v>-0.01324791128988833</v>
       </c>
       <c r="AA39" t="n">
         <v>0.5969344206365859</v>
@@ -6868,7 +6868,7 @@
         <v>1.446368115312305</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.5806824452475889</v>
+        <v>0.5806824452475888</v>
       </c>
       <c r="AG39" t="n">
         <v>2.508970383710925</v>
@@ -6880,10 +6880,10 @@
         <v>2.236860806193992</v>
       </c>
       <c r="AJ39" t="n">
-        <v>7.013707411939674</v>
+        <v>7.013707411939673</v>
       </c>
       <c r="AK39" t="n">
-        <v>5.398117086328668</v>
+        <v>5.398117086328666</v>
       </c>
       <c r="AL39" t="n">
         <v>2.946550867769806</v>
@@ -6901,7 +6901,7 @@
         <v>5.842816127853799</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.651061004755684</v>
+        <v>2.651061004755683</v>
       </c>
       <c r="AR39" t="n">
         <v>1.152419252023587</v>
@@ -6913,7 +6913,7 @@
         <v>2.042455467499592</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.8046857041812572</v>
+        <v>0.8046857041812574</v>
       </c>
       <c r="AV39" t="n">
         <v>3.608752218139466</v>
@@ -6948,16 +6948,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.025611980803475</v>
+        <v>-3.025611980803477</v>
       </c>
       <c r="E40" t="n">
         <v>-2.467503012275542</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.32491865922651</v>
+        <v>-3.324918659226508</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.306895663617047</v>
+        <v>-1.306895663617045</v>
       </c>
       <c r="H40" t="n">
         <v>-1.592210922064682</v>
@@ -6966,19 +6966,19 @@
         <v>-0.4458432450645162</v>
       </c>
       <c r="J40" t="n">
-        <v>4.852573710346924</v>
+        <v>4.852573710346926</v>
       </c>
       <c r="K40" t="n">
         <v>2.493937019718522</v>
       </c>
       <c r="L40" t="n">
-        <v>7.763561311203372</v>
+        <v>7.763561311203373</v>
       </c>
       <c r="M40" t="n">
         <v>9.212611747336005</v>
       </c>
       <c r="N40" t="n">
-        <v>5.481533399025387</v>
+        <v>5.481533399025388</v>
       </c>
       <c r="O40" t="n">
         <v>13.25259399180288</v>
@@ -7005,16 +7005,16 @@
         <v>2.218557136107067</v>
       </c>
       <c r="W40" t="n">
-        <v>0.8863879162586459</v>
+        <v>0.8863879162586458</v>
       </c>
       <c r="X40" t="n">
         <v>3.833325797964785</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4946876507413646</v>
+        <v>0.4946876507413644</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.02432915845992793</v>
+        <v>0.02432915845992794</v>
       </c>
       <c r="AA40" t="n">
         <v>1.224513595589795</v>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>-0.1843628316140578</v>
+        <v>-0.1843628316140579</v>
       </c>
       <c r="AF40" t="n">
         <v>-0.1333625432762361</v>
@@ -7047,7 +7047,7 @@
         <v>-0.2803260453452157</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.1100617239842516</v>
+        <v>0.1100617239842521</v>
       </c>
       <c r="AL40" t="n">
         <v>-0.2927287443609345</v>
@@ -7062,43 +7062,43 @@
         <v>0.2435261801315383</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.59225442747622</v>
+        <v>2.592254427476219</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.902561893847113</v>
+        <v>1.902561893847112</v>
       </c>
       <c r="AR40" t="n">
         <v>0.7076367104871579</v>
       </c>
       <c r="AS40" t="n">
-        <v>3.463278351515862</v>
+        <v>3.463278351515863</v>
       </c>
       <c r="AT40" t="n">
         <v>1.988238360673755</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.773967842386136</v>
+        <v>0.7739678423861363</v>
       </c>
       <c r="AV40" t="n">
-        <v>3.522700417980103</v>
+        <v>3.522700417980104</v>
       </c>
       <c r="AW40" t="n">
         <v>1.428914648704529</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.4738944382326143</v>
+        <v>0.4738944382326142</v>
       </c>
       <c r="AY40" t="n">
         <v>2.659051688216493</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.3828402665611962</v>
+        <v>0.3828402665611961</v>
       </c>
       <c r="BA40" t="n">
         <v>0.01928125024958147</v>
       </c>
       <c r="BB40" t="n">
-        <v>0.9843810632528099</v>
+        <v>0.9843810632528101</v>
       </c>
     </row>
     <row r="41">
@@ -7112,19 +7112,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.142319869255598</v>
+        <v>-6.1423198692556</v>
       </c>
       <c r="E41" t="n">
         <v>-4.153878271319324</v>
       </c>
       <c r="F41" t="n">
-        <v>-8.247705286381096</v>
+        <v>-8.247705286381093</v>
       </c>
       <c r="G41" t="n">
         <v>-1.335975317491485</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.7931220555148144</v>
+        <v>-0.7931220555148162</v>
       </c>
       <c r="I41" t="n">
         <v>-1.662696856043976</v>
@@ -7142,13 +7142,13 @@
         <v>26.86931164400686</v>
       </c>
       <c r="N41" t="n">
-        <v>18.57587012425891</v>
+        <v>18.57587012425892</v>
       </c>
       <c r="O41" t="n">
-        <v>34.88895289461727</v>
+        <v>34.88895289461726</v>
       </c>
       <c r="P41" t="n">
-        <v>10.12782295815372</v>
+        <v>10.12782295815373</v>
       </c>
       <c r="Q41" t="n">
         <v>6.157275549015582</v>
@@ -7175,10 +7175,10 @@
         <v>3.812514703116484</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4237005957331033</v>
+        <v>0.4237005957331034</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.03754102839049983</v>
+        <v>0.03754102839049984</v>
       </c>
       <c r="AA41" t="n">
         <v>1.046502892544142</v>
@@ -7196,13 +7196,13 @@
         <v>-0.4631165175840251</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.1966464528833571</v>
+        <v>-0.196646452883357</v>
       </c>
       <c r="AG41" t="n">
         <v>-0.7841769690197801</v>
       </c>
       <c r="AH41" t="n">
-        <v>-0.9251815207912772</v>
+        <v>-0.9251815207912768</v>
       </c>
       <c r="AI41" t="n">
         <v>-0.5148953833113927</v>
@@ -7211,7 +7211,7 @@
         <v>-1.371991295645898</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.5503202655612021</v>
+        <v>0.5503202655612025</v>
       </c>
       <c r="AL41" t="n">
         <v>0.1123829403779464</v>
@@ -7223,10 +7223,10 @@
         <v>3.896159513301565</v>
       </c>
       <c r="AO41" t="n">
-        <v>2.02615386722453</v>
+        <v>2.026153867224531</v>
       </c>
       <c r="AP41" t="n">
-        <v>6.10907011945955</v>
+        <v>6.109070119459551</v>
       </c>
       <c r="AQ41" t="n">
         <v>4.870655492426158</v>
@@ -7244,7 +7244,7 @@
         <v>2.318931639848236</v>
       </c>
       <c r="AV41" t="n">
-        <v>6.483553787418364</v>
+        <v>6.483553787418365</v>
       </c>
       <c r="AW41" t="n">
         <v>2.701875693876949</v>
@@ -7312,7 +7312,7 @@
         <v>12.94421575398671</v>
       </c>
       <c r="P42" t="n">
-        <v>3.814921860779284</v>
+        <v>3.814921860779283</v>
       </c>
       <c r="Q42" t="n">
         <v>1.87649113697042</v>
@@ -7336,13 +7336,13 @@
         <v>0.2688103616404028</v>
       </c>
       <c r="X42" t="n">
-        <v>1.872844736490705</v>
+        <v>1.872844736490706</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1817764209440393</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.0003176016950878543</v>
+        <v>-0.000317601695087856</v>
       </c>
       <c r="AA42" t="n">
         <v>0.548906265245217</v>
@@ -7366,7 +7366,7 @@
         <v>1.666190977396133</v>
       </c>
       <c r="AH42" t="n">
-        <v>3.386397382155816</v>
+        <v>3.386397382155815</v>
       </c>
       <c r="AI42" t="n">
         <v>1.791560597109233</v>
@@ -7390,7 +7390,7 @@
         <v>3.113434104428999</v>
       </c>
       <c r="AP42" t="n">
-        <v>8.073387900631683</v>
+        <v>8.073387900631685</v>
       </c>
       <c r="AQ42" t="n">
         <v>4.779349321174809</v>
@@ -7420,10 +7420,10 @@
         <v>3.759258071335333</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.5298988293305348</v>
+        <v>0.5298988293305349</v>
       </c>
       <c r="BA42" t="n">
-        <v>0.0183965467027551</v>
+        <v>0.01839654670275511</v>
       </c>
       <c r="BB42" t="n">
         <v>1.257631462283934</v>
@@ -7446,7 +7446,7 @@
         <v>8.064485967574111</v>
       </c>
       <c r="F43" t="n">
-        <v>16.09367185010569</v>
+        <v>16.0936718501057</v>
       </c>
       <c r="G43" t="n">
         <v>13.30712793188082</v>
@@ -7455,7 +7455,7 @@
         <v>8.870124896500453</v>
       </c>
       <c r="I43" t="n">
-        <v>18.07716007958815</v>
+        <v>18.07716007958816</v>
       </c>
       <c r="J43" t="n">
         <v>9.936126238016097</v>
@@ -7476,7 +7476,7 @@
         <v>7.356623717700955</v>
       </c>
       <c r="P43" t="n">
-        <v>3.601774434730638</v>
+        <v>3.601774434730639</v>
       </c>
       <c r="Q43" t="n">
         <v>1.846276162144867</v>
@@ -7503,10 +7503,10 @@
         <v>2.441460123861994</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.2880491115481815</v>
+        <v>0.2880491115481814</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.008694858043972079</v>
+        <v>0.008694858043972074</v>
       </c>
       <c r="AA43" t="n">
         <v>0.768685788989671</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.8883698120383861</v>
+        <v>0.8883698120383859</v>
       </c>
       <c r="AF43" t="n">
         <v>0.3531833294686133</v>
@@ -7539,7 +7539,7 @@
         <v>4.006184183111277</v>
       </c>
       <c r="AK43" t="n">
-        <v>3.414329087592179</v>
+        <v>3.414329087592178</v>
       </c>
       <c r="AL43" t="n">
         <v>1.765293449993817</v>
@@ -7554,7 +7554,7 @@
         <v>1.767448330067302</v>
       </c>
       <c r="AP43" t="n">
-        <v>5.505013111720309</v>
+        <v>5.505013111720308</v>
       </c>
       <c r="AQ43" t="n">
         <v>3.123850149149752</v>
@@ -7563,7 +7563,7 @@
         <v>1.543376112673511</v>
       </c>
       <c r="AS43" t="n">
-        <v>5.034835553289077</v>
+        <v>5.034835553289078</v>
       </c>
       <c r="AT43" t="n">
         <v>2.615712998767318</v>
@@ -7584,10 +7584,10 @@
         <v>2.960892457302905</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0.4065273376288397</v>
+        <v>0.4065273376288396</v>
       </c>
       <c r="BA43" t="n">
-        <v>0.005467159224475181</v>
+        <v>0.005467159224475184</v>
       </c>
       <c r="BB43" t="n">
         <v>1.036907206059426</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-5.858086346536929</v>
+        <v>-5.858086346536933</v>
       </c>
       <c r="E44" t="n">
         <v>-4.032601959509161</v>
@@ -7616,7 +7616,7 @@
         <v>4.031381245331565</v>
       </c>
       <c r="H44" t="n">
-        <v>2.916324467635146</v>
+        <v>2.916324467635143</v>
       </c>
       <c r="I44" t="n">
         <v>4.952177114041248</v>
@@ -7637,7 +7637,7 @@
         <v>20.03226068726462</v>
       </c>
       <c r="O44" t="n">
-        <v>37.42969055018899</v>
+        <v>37.42969055018898</v>
       </c>
       <c r="P44" t="n">
         <v>10.17230307658141</v>
@@ -7667,10 +7667,10 @@
         <v>3.526941052362679</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.372270517244045</v>
+        <v>0.3722705172440451</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.03016212439778902</v>
+        <v>0.03016212439778903</v>
       </c>
       <c r="AA44" t="n">
         <v>0.9486688021411495</v>
@@ -7703,7 +7703,7 @@
         <v>-0.7340160974138881</v>
       </c>
       <c r="AK44" t="n">
-        <v>1.467223233421611</v>
+        <v>1.467223233421612</v>
       </c>
       <c r="AL44" t="n">
         <v>0.707788555725958</v>
@@ -7718,7 +7718,7 @@
         <v>2.707491697101877</v>
       </c>
       <c r="AP44" t="n">
-        <v>7.392023599065383</v>
+        <v>7.392023599065384</v>
       </c>
       <c r="AQ44" t="n">
         <v>5.691171660750252</v>
@@ -7745,10 +7745,10 @@
         <v>1.446083592468224</v>
       </c>
       <c r="AY44" t="n">
-        <v>4.814358454032328</v>
+        <v>4.814358454032327</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0.7258314394093367</v>
+        <v>0.7258314394093368</v>
       </c>
       <c r="BA44" t="n">
         <v>0.09005285845776298</v>
@@ -7780,7 +7780,7 @@
         <v>29.28246695765555</v>
       </c>
       <c r="H45" t="n">
-        <v>20.14199492958056</v>
+        <v>20.14199492958057</v>
       </c>
       <c r="I45" t="n">
         <v>38.35218786388004</v>
@@ -7798,10 +7798,10 @@
         <v>-0.4943557249829205</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.298676991637597</v>
+        <v>-1.298676991637599</v>
       </c>
       <c r="O45" t="n">
-        <v>1.123242293504155</v>
+        <v>1.123242293504159</v>
       </c>
       <c r="P45" t="n">
         <v>0.7397205772059579</v>
@@ -7831,10 +7831,10 @@
         <v>1.047906507001654</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.0836855947723486</v>
+        <v>0.08368559477234852</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.0107696745362249</v>
+        <v>-0.01076967453622491</v>
       </c>
       <c r="AA45" t="n">
         <v>0.3289322110151929</v>
@@ -7852,7 +7852,7 @@
         <v>1.857343109740549</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.7924965855235772</v>
+        <v>0.7924965855235773</v>
       </c>
       <c r="AG45" t="n">
         <v>3.125707594875135</v>
@@ -7864,10 +7864,10 @@
         <v>2.881342527346478</v>
       </c>
       <c r="AJ45" t="n">
-        <v>8.292142301901572</v>
+        <v>8.292142301901574</v>
       </c>
       <c r="AK45" t="n">
-        <v>6.811928554990902</v>
+        <v>6.8119285549909</v>
       </c>
       <c r="AL45" t="n">
         <v>3.880414999642616</v>
@@ -7891,7 +7891,7 @@
         <v>2.343164058367418</v>
       </c>
       <c r="AS45" t="n">
-        <v>6.597411477743229</v>
+        <v>6.59741147774323</v>
       </c>
       <c r="AT45" t="n">
         <v>3.220760155983455</v>
@@ -7900,13 +7900,13 @@
         <v>1.605541740048574</v>
       </c>
       <c r="AV45" t="n">
-        <v>5.128061808074505</v>
+        <v>5.128061808074504</v>
       </c>
       <c r="AW45" t="n">
         <v>1.839368781759926</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.6676567592818671</v>
+        <v>0.6676567592818672</v>
       </c>
       <c r="AY45" t="n">
         <v>3.24894418354377</v>
@@ -7932,19 +7932,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3.30795096653397</v>
+        <v>3.307950966533971</v>
       </c>
       <c r="E46" t="n">
         <v>2.606597890708173</v>
       </c>
       <c r="F46" t="n">
-        <v>3.925401096880055</v>
+        <v>3.925401096880059</v>
       </c>
       <c r="G46" t="n">
         <v>9.296419897665192</v>
       </c>
       <c r="H46" t="n">
-        <v>6.933191055145246</v>
+        <v>6.933191055145244</v>
       </c>
       <c r="I46" t="n">
         <v>11.58564208690877</v>
@@ -7965,10 +7965,10 @@
         <v>18.83591253089636</v>
       </c>
       <c r="O46" t="n">
-        <v>34.98782213828034</v>
+        <v>34.98782213828032</v>
       </c>
       <c r="P46" t="n">
-        <v>8.906859066743442</v>
+        <v>8.906859066743444</v>
       </c>
       <c r="Q46" t="n">
         <v>5.277287472660007</v>
@@ -8016,13 +8016,13 @@
         <v>0.2009177919936079</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.1171090911096477</v>
+        <v>0.1171090911096478</v>
       </c>
       <c r="AG46" t="n">
         <v>0.2760429056802801</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.9737430760587451</v>
+        <v>0.9737430760587453</v>
       </c>
       <c r="AI46" t="n">
         <v>0.6025067143065181</v>
@@ -8049,7 +8049,7 @@
         <v>8.850870770887138</v>
       </c>
       <c r="AQ46" t="n">
-        <v>6.31628262377844</v>
+        <v>6.316282623778441</v>
       </c>
       <c r="AR46" t="n">
         <v>3.754147058948132</v>
@@ -8064,19 +8064,19 @@
         <v>2.919727797038418</v>
       </c>
       <c r="AV46" t="n">
-        <v>7.638232582572732</v>
+        <v>7.638232582572733</v>
       </c>
       <c r="AW46" t="n">
-        <v>3.100347868285257</v>
+        <v>3.100347868285258</v>
       </c>
       <c r="AX46" t="n">
         <v>1.494542054036874</v>
       </c>
       <c r="AY46" t="n">
-        <v>4.985962402843854</v>
+        <v>4.985962402843853</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0.7365295645467247</v>
+        <v>0.7365295645467248</v>
       </c>
       <c r="BA46" t="n">
         <v>0.08920226452795499</v>
@@ -8108,7 +8108,7 @@
         <v>25.95241663857836</v>
       </c>
       <c r="H47" t="n">
-        <v>18.60982819548284</v>
+        <v>18.60982819548285</v>
       </c>
       <c r="I47" t="n">
         <v>32.73668210102026</v>
@@ -8141,7 +8141,7 @@
         <v>9.629897938582493</v>
       </c>
       <c r="S47" t="n">
-        <v>1.962732635143512</v>
+        <v>1.962732635143511</v>
       </c>
       <c r="T47" t="n">
         <v>0.7750072414279398</v>
@@ -8150,19 +8150,19 @@
         <v>3.889603253650117</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5550568646772085</v>
+        <v>0.5550568646772084</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1495199508178526</v>
+        <v>0.1495199508178527</v>
       </c>
       <c r="X47" t="n">
         <v>1.439142541208492</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.06231270845427028</v>
+        <v>0.06231270845427039</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.006710673773855239</v>
+        <v>0.006710673773855235</v>
       </c>
       <c r="AA47" t="n">
         <v>0.2649270922409628</v>
@@ -8180,7 +8180,7 @@
         <v>1.11801141672063</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.5328060388196689</v>
+        <v>0.532806038819669</v>
       </c>
       <c r="AG47" t="n">
         <v>1.77974544391619</v>
@@ -8213,7 +8213,7 @@
         <v>11.76116162543152</v>
       </c>
       <c r="AQ47" t="n">
-        <v>7.52310404370421</v>
+        <v>7.523104043704212</v>
       </c>
       <c r="AR47" t="n">
         <v>4.535959276395815</v>
@@ -8237,10 +8237,10 @@
         <v>1.591412996672165</v>
       </c>
       <c r="AY47" t="n">
-        <v>5.267119607661946</v>
+        <v>5.267119607661945</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.7613620460108019</v>
+        <v>0.7613620460108022</v>
       </c>
       <c r="BA47" t="n">
         <v>0.06933172192010356</v>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>15.56689198313034</v>
+        <v>15.56689198313035</v>
       </c>
       <c r="E48" t="n">
         <v>10.46279342510375</v>
@@ -8278,10 +8278,10 @@
         <v>25.9798611507469</v>
       </c>
       <c r="J48" t="n">
-        <v>9.132062440706328</v>
+        <v>9.132062440706331</v>
       </c>
       <c r="K48" t="n">
-        <v>5.357934500100635</v>
+        <v>5.357934500100636</v>
       </c>
       <c r="L48" t="n">
         <v>13.35442719853886</v>
@@ -8290,13 +8290,13 @@
         <v>-0.8007756926084681</v>
       </c>
       <c r="N48" t="n">
-        <v>-1.701206381502898</v>
+        <v>-1.701206381502899</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8556674747936519</v>
+        <v>0.8556674747936555</v>
       </c>
       <c r="P48" t="n">
-        <v>1.919288738885147</v>
+        <v>1.919288738885146</v>
       </c>
       <c r="Q48" t="n">
         <v>0.6978623128788564</v>
@@ -8305,7 +8305,7 @@
         <v>3.54646262794006</v>
       </c>
       <c r="S48" t="n">
-        <v>1.760628312024895</v>
+        <v>1.760628312024896</v>
       </c>
       <c r="T48" t="n">
         <v>0.7162302502279688</v>
@@ -8320,13 +8320,13 @@
         <v>0.3151977299957746</v>
       </c>
       <c r="X48" t="n">
-        <v>2.026037109291758</v>
+        <v>2.026037109291759</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.2429849876926991</v>
+        <v>0.242984987692699</v>
       </c>
       <c r="Z48" t="n">
-        <v>-0.003234084664018399</v>
+        <v>-0.003234084664018406</v>
       </c>
       <c r="AA48" t="n">
         <v>0.68682866196954</v>
@@ -8344,7 +8344,7 @@
         <v>1.141429127187775</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.4551247331856298</v>
+        <v>0.4551247331856297</v>
       </c>
       <c r="AG48" t="n">
         <v>1.983694678688317</v>
@@ -8389,7 +8389,7 @@
         <v>2.323477362914099</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.9972202476993062</v>
+        <v>0.9972202476993063</v>
       </c>
       <c r="AV48" t="n">
         <v>3.967066665583385</v>
@@ -8404,7 +8404,7 @@
         <v>2.681604688427416</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.3584032429064646</v>
+        <v>0.3584032429064645</v>
       </c>
       <c r="BA48" t="n">
         <v>-0.01698925740133565</v>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-9.608382583806318</v>
+        <v>-9.608382583806321</v>
       </c>
       <c r="E49" t="n">
         <v>-7.154486070292701</v>
@@ -8442,13 +8442,13 @@
         <v>-3.968483167125235</v>
       </c>
       <c r="J49" t="n">
-        <v>6.012554059125534</v>
+        <v>6.012554059125536</v>
       </c>
       <c r="K49" t="n">
         <v>3.316200882193978</v>
       </c>
       <c r="L49" t="n">
-        <v>9.139711954764433</v>
+        <v>9.139711954764435</v>
       </c>
       <c r="M49" t="n">
         <v>13.74517507438283</v>
@@ -8460,10 +8460,10 @@
         <v>18.910022359473</v>
       </c>
       <c r="P49" t="n">
-        <v>7.856543879983154</v>
+        <v>7.856543879983153</v>
       </c>
       <c r="Q49" t="n">
-        <v>4.705477539585952</v>
+        <v>4.705477539585951</v>
       </c>
       <c r="R49" t="n">
         <v>11.16704420861811</v>
@@ -8484,13 +8484,13 @@
         <v>1.004640403443788</v>
       </c>
       <c r="X49" t="n">
-        <v>4.24452895564115</v>
+        <v>4.244528955641149</v>
       </c>
       <c r="Y49" t="n">
         <v>0.5454393306402227</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02668252075731561</v>
+        <v>0.02668252075731563</v>
       </c>
       <c r="AA49" t="n">
         <v>1.346556294174042</v>
@@ -8508,7 +8508,7 @@
         <v>-0.6968205116391499</v>
       </c>
       <c r="AF49" t="n">
-        <v>-0.353385488717966</v>
+        <v>-0.3533854887179663</v>
       </c>
       <c r="AG49" t="n">
         <v>-1.061317518513352</v>
@@ -8523,7 +8523,7 @@
         <v>-1.785329906508355</v>
       </c>
       <c r="AK49" t="n">
-        <v>-0.6718350418547017</v>
+        <v>-0.6718350418547003</v>
       </c>
       <c r="AL49" t="n">
         <v>-0.7548839038373223</v>
@@ -8535,16 +8535,16 @@
         <v>1.121136057382747</v>
       </c>
       <c r="AO49" t="n">
-        <v>0.1573396399100044</v>
+        <v>0.157339639910004</v>
       </c>
       <c r="AP49" t="n">
         <v>2.419651174859911</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.117256212978844</v>
+        <v>2.117256212978843</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.8222243637041144</v>
+        <v>0.8222243637041142</v>
       </c>
       <c r="AS49" t="n">
         <v>3.746138518374697</v>
@@ -8553,7 +8553,7 @@
         <v>2.22440529433341</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.9364010452678408</v>
+        <v>0.936401045267841</v>
       </c>
       <c r="AV49" t="n">
         <v>3.855749476077016</v>
@@ -8568,7 +8568,7 @@
         <v>2.903866849978114</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.432873378610961</v>
+        <v>0.4328733786109609</v>
       </c>
       <c r="BA49" t="n">
         <v>0.03164358090415038</v>
@@ -8591,7 +8591,7 @@
         <v>10.40035856299423</v>
       </c>
       <c r="E50" t="n">
-        <v>6.558359840703406</v>
+        <v>6.558359840703405</v>
       </c>
       <c r="F50" t="n">
         <v>14.7836199869827</v>
@@ -8600,37 +8600,37 @@
         <v>14.04127805309868</v>
       </c>
       <c r="H50" t="n">
-        <v>8.639692737937981</v>
+        <v>8.639692737937985</v>
       </c>
       <c r="I50" t="n">
         <v>19.7582110491333</v>
       </c>
       <c r="J50" t="n">
-        <v>2.155649077242543</v>
+        <v>2.155649077242545</v>
       </c>
       <c r="K50" t="n">
         <v>0.1606864479985255</v>
       </c>
       <c r="L50" t="n">
-        <v>4.907402195156083</v>
+        <v>4.907402195156086</v>
       </c>
       <c r="M50" t="n">
         <v>-6.110264269834477</v>
       </c>
       <c r="N50" t="n">
-        <v>-5.753883373337137</v>
+        <v>-5.753883373337139</v>
       </c>
       <c r="O50" t="n">
-        <v>-5.575452436729275</v>
+        <v>-5.575452436729272</v>
       </c>
       <c r="P50" t="n">
-        <v>1.499162664181032</v>
+        <v>1.499162664181031</v>
       </c>
       <c r="Q50" t="n">
         <v>0.4691383396492346</v>
       </c>
       <c r="R50" t="n">
-        <v>2.758968308505658</v>
+        <v>2.758968308505657</v>
       </c>
       <c r="S50" t="n">
         <v>2.207040704903379</v>
@@ -8651,10 +8651,10 @@
         <v>2.590432639769177</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.354945234340217</v>
+        <v>0.3549452343402169</v>
       </c>
       <c r="Z50" t="n">
-        <v>-0.003797205335561262</v>
+        <v>-0.003797205335561266</v>
       </c>
       <c r="AA50" t="n">
         <v>0.9467937572781098</v>
@@ -8669,10 +8669,10 @@
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.7823338057346718</v>
+        <v>0.782333805734672</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.2669269012545842</v>
+        <v>0.2669269012545841</v>
       </c>
       <c r="AG50" t="n">
         <v>1.448750509010864</v>
@@ -8699,19 +8699,19 @@
         <v>1.674896469894172</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.5632820472371258</v>
+        <v>0.5632820472371256</v>
       </c>
       <c r="AP50" t="n">
-        <v>3.101015476426213</v>
+        <v>3.101015476426212</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.205433873403401</v>
+        <v>1.2054338734034</v>
       </c>
       <c r="AR50" t="n">
         <v>0.1661407401278305</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.565300825684517</v>
+        <v>2.565300825684518</v>
       </c>
       <c r="AT50" t="n">
         <v>1.156386414868949</v>
@@ -8720,7 +8720,7 @@
         <v>0.2038895469910753</v>
       </c>
       <c r="AV50" t="n">
-        <v>2.454073422985099</v>
+        <v>2.454073422985098</v>
       </c>
       <c r="AW50" t="n">
         <v>0.8447589489740033</v>
@@ -8732,13 +8732,13 @@
         <v>1.84876646728112</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.2369407685321591</v>
+        <v>0.236940768532159</v>
       </c>
       <c r="BA50" t="n">
         <v>-0.04001273085085748</v>
       </c>
       <c r="BB50" t="n">
-        <v>0.7495511556869967</v>
+        <v>0.7495511556869968</v>
       </c>
     </row>
     <row r="51">
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-15.32587011585313</v>
+        <v>-15.32587011585314</v>
       </c>
       <c r="E51" t="n">
         <v>-11.04727519992502</v>
@@ -8764,13 +8764,13 @@
         <v>-13.2761935568456</v>
       </c>
       <c r="H51" t="n">
-        <v>-9.96416864650981</v>
+        <v>-9.964168646509814</v>
       </c>
       <c r="I51" t="n">
         <v>-15.85802151891038</v>
       </c>
       <c r="J51" t="n">
-        <v>3.257227864409643</v>
+        <v>3.257227864409645</v>
       </c>
       <c r="K51" t="n">
         <v>1.467000164596723</v>
@@ -8782,10 +8782,10 @@
         <v>16.56400467792393</v>
       </c>
       <c r="N51" t="n">
-        <v>10.75549010704614</v>
+        <v>10.75549010704615</v>
       </c>
       <c r="O51" t="n">
-        <v>22.36412422166628</v>
+        <v>22.36412422166627</v>
       </c>
       <c r="P51" t="n">
         <v>9.370362268207682</v>
@@ -8797,7 +8797,7 @@
         <v>12.95827314492884</v>
       </c>
       <c r="S51" t="n">
-        <v>5.755123605748016</v>
+        <v>5.755123605748017</v>
       </c>
       <c r="T51" t="n">
         <v>3.099911826032728</v>
@@ -8812,13 +8812,13 @@
         <v>1.233463474308422</v>
       </c>
       <c r="X51" t="n">
-        <v>4.942993706828868</v>
+        <v>4.942993706828867</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.6453460666107887</v>
+        <v>0.6453460666107886</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.04024501921165522</v>
+        <v>0.04024501921165523</v>
       </c>
       <c r="AA51" t="n">
         <v>1.550358854535635</v>
@@ -8836,13 +8836,13 @@
         <v>-1.07754781453995</v>
       </c>
       <c r="AF51" t="n">
-        <v>-0.5258095000555626</v>
+        <v>-0.5258095000555628</v>
       </c>
       <c r="AG51" t="n">
         <v>-1.690479225401171</v>
       </c>
       <c r="AH51" t="n">
-        <v>-2.79321935468223</v>
+        <v>-2.793219354682229</v>
       </c>
       <c r="AI51" t="n">
         <v>-1.721606724298425</v>
@@ -8851,7 +8851,7 @@
         <v>-3.927756856237307</v>
       </c>
       <c r="AK51" t="n">
-        <v>-2.463966879344859</v>
+        <v>-2.463966879344858</v>
       </c>
       <c r="AL51" t="n">
         <v>-1.869544033955769</v>
@@ -8866,37 +8866,37 @@
         <v>-0.6213113204508738</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.9657396624375751</v>
+        <v>0.965739662437576</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.521078920704392</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.4582818473496082</v>
+        <v>0.458281847349608</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.973831833466683</v>
+        <v>2.973831833466684</v>
       </c>
       <c r="AT51" t="n">
         <v>1.944309196602767</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.7473209087499464</v>
+        <v>0.7473209087499466</v>
       </c>
       <c r="AV51" t="n">
-        <v>3.470199996895294</v>
+        <v>3.470199996895295</v>
       </c>
       <c r="AW51" t="n">
-        <v>1.518441129299114</v>
+        <v>1.518441129299115</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.5551925149921385</v>
+        <v>0.5551925149921386</v>
       </c>
       <c r="AY51" t="n">
         <v>2.773630029703229</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.4198844326807054</v>
+        <v>0.4198844326807052</v>
       </c>
       <c r="BA51" t="n">
         <v>0.04460707799944867</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.84957793330622</v>
+        <v>-3.849577933306222</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.538120287406488</v>
+        <v>-2.538120287406487</v>
       </c>
       <c r="F52" t="n">
         <v>-5.496831268393361</v>
@@ -8928,7 +8928,7 @@
         <v>7.35676466273931</v>
       </c>
       <c r="H52" t="n">
-        <v>5.411469669012639</v>
+        <v>5.411469669012636</v>
       </c>
       <c r="I52" t="n">
         <v>8.939014394667655</v>
@@ -8973,19 +8973,19 @@
         <v>1.744375045921312</v>
       </c>
       <c r="W52" t="n">
-        <v>0.7065848091261063</v>
+        <v>0.7065848091261062</v>
       </c>
       <c r="X52" t="n">
         <v>3.243899315745196</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.3174279051289612</v>
+        <v>0.3174279051289614</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.02852856865143989</v>
+        <v>0.02852856865143991</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.8267233687996878</v>
+        <v>0.8267233687996877</v>
       </c>
       <c r="AB52" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>-0.09521273468258462</v>
       </c>
       <c r="AK52" t="n">
-        <v>2.244128045595825</v>
+        <v>2.244128045595826</v>
       </c>
       <c r="AL52" t="n">
         <v>1.217545138132899</v>
@@ -9033,13 +9033,13 @@
         <v>8.677444908370926</v>
       </c>
       <c r="AQ52" t="n">
-        <v>6.526154664451215</v>
+        <v>6.526154664451216</v>
       </c>
       <c r="AR52" t="n">
         <v>3.850758983918865</v>
       </c>
       <c r="AS52" t="n">
-        <v>9.435061465194176</v>
+        <v>9.435061465194174</v>
       </c>
       <c r="AT52" t="n">
         <v>5.367085857667226</v>
@@ -9057,10 +9057,10 @@
         <v>1.624262829752375</v>
       </c>
       <c r="AY52" t="n">
-        <v>5.223883043182703</v>
+        <v>5.223883043182702</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0.7869444800619674</v>
+        <v>0.7869444800619675</v>
       </c>
       <c r="BA52" t="n">
         <v>0.09954577798827552</v>
@@ -9101,7 +9101,7 @@
         <v>8.043265402221486</v>
       </c>
       <c r="K53" t="n">
-        <v>4.547810729962122</v>
+        <v>4.547810729962123</v>
       </c>
       <c r="L53" t="n">
         <v>12.09393953812652</v>
@@ -9110,10 +9110,10 @@
         <v>-5.490174113839839</v>
       </c>
       <c r="N53" t="n">
-        <v>-5.066380017016128</v>
+        <v>-5.06638001701613</v>
       </c>
       <c r="O53" t="n">
-        <v>-4.970466467923902</v>
+        <v>-4.970466467923899</v>
       </c>
       <c r="P53" t="n">
         <v>0.4023859619640309</v>
@@ -9125,7 +9125,7 @@
         <v>1.489112871911847</v>
       </c>
       <c r="S53" t="n">
-        <v>1.101560659367483</v>
+        <v>1.101560659367484</v>
       </c>
       <c r="T53" t="n">
         <v>0.339134514788946</v>
@@ -9143,10 +9143,10 @@
         <v>1.61398998023662</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1933708190025162</v>
+        <v>0.193370819002516</v>
       </c>
       <c r="Z53" t="n">
-        <v>-0.007502563043526639</v>
+        <v>-0.007502563043526653</v>
       </c>
       <c r="AA53" t="n">
         <v>0.5728230776981162</v>
@@ -9164,7 +9164,7 @@
         <v>1.602007134237727</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.651531370282417</v>
+        <v>0.6515313702824171</v>
       </c>
       <c r="AG53" t="n">
         <v>2.754349508171197</v>
@@ -9179,7 +9179,7 @@
         <v>7.014535576438966</v>
       </c>
       <c r="AK53" t="n">
-        <v>5.258118930642473</v>
+        <v>5.258118930642471</v>
       </c>
       <c r="AL53" t="n">
         <v>2.860901834828735</v>
@@ -9194,7 +9194,7 @@
         <v>1.973201181296362</v>
       </c>
       <c r="AP53" t="n">
-        <v>5.845283957553508</v>
+        <v>5.845283957553507</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.665527840132552</v>
@@ -9209,19 +9209,19 @@
         <v>2.076096688815731</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.8272617096585153</v>
+        <v>0.8272617096585155</v>
       </c>
       <c r="AV53" t="n">
-        <v>3.627701260149721</v>
+        <v>3.62770126014972</v>
       </c>
       <c r="AW53" t="n">
         <v>1.249861687515357</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.3112982847135657</v>
+        <v>0.3112982847135658</v>
       </c>
       <c r="AY53" t="n">
-        <v>2.42989500524302</v>
+        <v>2.429895005243021</v>
       </c>
       <c r="AZ53" t="n">
         <v>0.3087519343221777</v>
@@ -9250,25 +9250,25 @@
         <v>2.207835590973585</v>
       </c>
       <c r="F54" t="n">
-        <v>6.525490225118179</v>
+        <v>6.525490225118175</v>
       </c>
       <c r="G54" t="n">
-        <v>5.372950825072886</v>
+        <v>5.372950825072885</v>
       </c>
       <c r="H54" t="n">
-        <v>2.598990614140438</v>
+        <v>2.598990614140439</v>
       </c>
       <c r="I54" t="n">
         <v>8.744684927167754</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.5284938071795811</v>
+        <v>-0.5284938071795775</v>
       </c>
       <c r="K54" t="n">
         <v>-1.676374177261788</v>
       </c>
       <c r="L54" t="n">
-        <v>1.481725421282167</v>
+        <v>1.481725421282171</v>
       </c>
       <c r="M54" t="n">
         <v>-3.448269760477931</v>
@@ -9301,13 +9301,13 @@
         <v>1.901141801545947</v>
       </c>
       <c r="W54" t="n">
-        <v>0.7039522137493834</v>
+        <v>0.7039522137493833</v>
       </c>
       <c r="X54" t="n">
         <v>3.28805341957812</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.4559894815194583</v>
+        <v>0.4559894815194581</v>
       </c>
       <c r="Z54" t="n">
         <v>0.007850177036657786</v>
@@ -9325,10 +9325,10 @@
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.3497268298587313</v>
+        <v>0.3497268298587312</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.07088658157204494</v>
+        <v>0.07088658157204486</v>
       </c>
       <c r="AG54" t="n">
         <v>0.7377957606362879</v>
@@ -9337,7 +9337,7 @@
         <v>1.066403364935956</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.3345789841991558</v>
+        <v>0.3345789841991559</v>
       </c>
       <c r="AJ54" t="n">
         <v>2.088945930418073</v>
@@ -9349,7 +9349,7 @@
         <v>0.3216727357140661</v>
       </c>
       <c r="AM54" t="n">
-        <v>2.450322347331834</v>
+        <v>2.450322347331835</v>
       </c>
       <c r="AN54" t="n">
         <v>0.5491857200993353</v>
@@ -9358,13 +9358,13 @@
         <v>-0.2098056179927537</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.646281354103974</v>
+        <v>1.646281354103973</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.6044343026699939</v>
+        <v>0.604434302669993</v>
       </c>
       <c r="AR54" t="n">
-        <v>-0.2157775044728991</v>
+        <v>-0.2157775044728996</v>
       </c>
       <c r="AS54" t="n">
         <v>1.788503502116972</v>
@@ -9373,10 +9373,10 @@
         <v>0.8650765766995931</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.007284075314094585</v>
+        <v>0.007284075314095029</v>
       </c>
       <c r="AV54" t="n">
-        <v>2.062207596466625</v>
+        <v>2.062207596466626</v>
       </c>
       <c r="AW54" t="n">
         <v>0.7454606977766769</v>
@@ -9388,7 +9388,7 @@
         <v>1.711635125583461</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0.2243336260673815</v>
+        <v>0.2243336260673813</v>
       </c>
       <c r="BA54" t="n">
         <v>-0.02906805094980758</v>
@@ -9411,37 +9411,37 @@
         <v>6.116621147340776</v>
       </c>
       <c r="E55" t="n">
-        <v>3.702317263076258</v>
+        <v>3.702317263076257</v>
       </c>
       <c r="F55" t="n">
-        <v>8.989301353713229</v>
+        <v>8.989301353713227</v>
       </c>
       <c r="G55" t="n">
         <v>8.69833424248063</v>
       </c>
       <c r="H55" t="n">
-        <v>5.094135815517931</v>
+        <v>5.094135815517932</v>
       </c>
       <c r="I55" t="n">
         <v>12.73152220779416</v>
       </c>
       <c r="J55" t="n">
-        <v>3.03089618484608</v>
+        <v>3.030896184846082</v>
       </c>
       <c r="K55" t="n">
         <v>0.9343899411262093</v>
       </c>
       <c r="L55" t="n">
-        <v>5.820900906122272</v>
+        <v>5.820900906122276</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.9503605660494685</v>
+        <v>-0.9503605660494703</v>
       </c>
       <c r="N55" t="n">
         <v>-1.961248788140345</v>
       </c>
       <c r="O55" t="n">
-        <v>0.7567982311305883</v>
+        <v>0.7567982311305919</v>
       </c>
       <c r="P55" t="n">
         <v>3.140252630295429</v>
@@ -9450,7 +9450,7 @@
         <v>1.577850389234431</v>
       </c>
       <c r="R55" t="n">
-        <v>4.892893868533699</v>
+        <v>4.892893868533698</v>
       </c>
       <c r="S55" t="n">
         <v>2.873492967840375</v>
@@ -9471,7 +9471,7 @@
         <v>3.005011682960637</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.4011468694043745</v>
+        <v>0.4011468694043743</v>
       </c>
       <c r="Z55" t="n">
         <v>0.006216621290308658</v>
@@ -9492,7 +9492,7 @@
         <v>0.4773948176101422</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.141369189192625</v>
+        <v>0.1413691891926249</v>
       </c>
       <c r="AG55" t="n">
         <v>0.923474803988257</v>
@@ -9519,25 +9519,25 @@
         <v>1.528901932242212</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.4548423264915971</v>
+        <v>0.4548423264915968</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.931702663409516</v>
+        <v>2.931702663409515</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.439417306370957</v>
+        <v>1.439417306370956</v>
       </c>
       <c r="AR55" t="n">
         <v>0.3526313063296809</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.866123547181476</v>
+        <v>2.866123547181477</v>
       </c>
       <c r="AT55" t="n">
         <v>1.437408310283455</v>
       </c>
       <c r="AU55" t="n">
-        <v>0.3964240905091241</v>
+        <v>0.3964240905091243</v>
       </c>
       <c r="AV55" t="n">
         <v>2.812387870429017</v>
@@ -9549,10 +9549,10 @@
         <v>0.214406906299604</v>
       </c>
       <c r="AY55" t="n">
-        <v>2.121159714733835</v>
+        <v>2.121159714733836</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0.2854466667200122</v>
+        <v>0.285446666720012</v>
       </c>
       <c r="BA55" t="n">
         <v>-0.01957513141929505</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>5.292655194838034</v>
+        <v>5.292655194838031</v>
       </c>
       <c r="E56" t="n">
         <v>3.631699987945312</v>
@@ -9608,7 +9608,7 @@
         <v>27.98074917023072</v>
       </c>
       <c r="P56" t="n">
-        <v>7.100186181704668</v>
+        <v>7.100186181704667</v>
       </c>
       <c r="Q56" t="n">
         <v>4.009768224351555</v>
@@ -9629,13 +9629,13 @@
         <v>1.226897467515694</v>
       </c>
       <c r="W56" t="n">
-        <v>0.4371207361950478</v>
+        <v>0.4371207361950477</v>
       </c>
       <c r="X56" t="n">
         <v>2.415585200741048</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.2238871237919711</v>
+        <v>0.2238871237919712</v>
       </c>
       <c r="Z56" t="n">
         <v>0.01041603148182062</v>
@@ -9671,7 +9671,7 @@
         <v>2.912862603812008</v>
       </c>
       <c r="AK56" t="n">
-        <v>4.134583940541518</v>
+        <v>4.134583940541519</v>
       </c>
       <c r="AL56" t="n">
         <v>2.34170320061484</v>
@@ -9692,7 +9692,7 @@
         <v>6.063010076975059</v>
       </c>
       <c r="AR56" t="n">
-        <v>3.495753579761387</v>
+        <v>3.495753579761388</v>
       </c>
       <c r="AS56" t="n">
         <v>8.837906660859788</v>
@@ -9704,7 +9704,7 @@
         <v>2.697091912884025</v>
       </c>
       <c r="AV56" t="n">
-        <v>7.254652745781808</v>
+        <v>7.254652745781807</v>
       </c>
       <c r="AW56" t="n">
         <v>2.896051820182905</v>
@@ -9716,7 +9716,7 @@
         <v>4.685991069700044</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0.6895508802207833</v>
+        <v>0.6895508802207835</v>
       </c>
       <c r="BA56" t="n">
         <v>0.060689396319399</v>
@@ -9736,25 +9736,25 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>3.017426192415291</v>
+        <v>3.017426192415288</v>
       </c>
       <c r="E57" t="n">
         <v>2.270139082420835</v>
       </c>
       <c r="F57" t="n">
-        <v>3.486881239871952</v>
+        <v>3.486881239871954</v>
       </c>
       <c r="G57" t="n">
         <v>15.34443417562668</v>
       </c>
       <c r="H57" t="n">
-        <v>11.0474046855527</v>
+        <v>11.04740468555269</v>
       </c>
       <c r="I57" t="n">
         <v>19.0765282868136</v>
       </c>
       <c r="J57" t="n">
-        <v>27.29771070098574</v>
+        <v>27.29771070098573</v>
       </c>
       <c r="K57" t="n">
         <v>18.96864550018502</v>
@@ -9793,16 +9793,16 @@
         <v>1.284132087768818</v>
       </c>
       <c r="W57" t="n">
-        <v>0.4871786235645506</v>
+        <v>0.4871786235645505</v>
       </c>
       <c r="X57" t="n">
         <v>2.547122507315026</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.2152461467410448</v>
+        <v>0.2152461467410449</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.01879630236134141</v>
+        <v>0.01879630236134142</v>
       </c>
       <c r="AA57" t="n">
         <v>0.6068465798124487</v>
@@ -9835,7 +9835,7 @@
         <v>2.047766324712564</v>
       </c>
       <c r="AK57" t="n">
-        <v>3.942927779295186</v>
+        <v>3.942927779295188</v>
       </c>
       <c r="AL57" t="n">
         <v>2.275105912957298</v>
@@ -9844,7 +9844,7 @@
         <v>5.87949907450979</v>
       </c>
       <c r="AN57" t="n">
-        <v>6.993389782620723</v>
+        <v>6.993389782620722</v>
       </c>
       <c r="AO57" t="n">
         <v>4.139664011685109</v>
@@ -9853,10 +9853,10 @@
         <v>10.13300164059307</v>
       </c>
       <c r="AQ57" t="n">
-        <v>7.131976513643578</v>
+        <v>7.131976513643579</v>
       </c>
       <c r="AR57" t="n">
-        <v>4.250652956765817</v>
+        <v>4.250652956765818</v>
       </c>
       <c r="AS57" t="n">
         <v>10.21634942742125</v>
@@ -9877,10 +9877,10 @@
         <v>1.672700855542354</v>
       </c>
       <c r="AY57" t="n">
-        <v>5.367908906303135</v>
+        <v>5.367908906303134</v>
       </c>
       <c r="AZ57" t="n">
-        <v>0.7991698190612671</v>
+        <v>0.7991698190612673</v>
       </c>
       <c r="BA57" t="n">
         <v>0.09061991528147398</v>
@@ -9903,7 +9903,7 @@
         <v>12.12463345350627</v>
       </c>
       <c r="E58" t="n">
-        <v>7.931565200995913</v>
+        <v>7.931565200995912</v>
       </c>
       <c r="F58" t="n">
         <v>16.96036822618507</v>
@@ -9912,25 +9912,25 @@
         <v>11.99930490768338</v>
       </c>
       <c r="H58" t="n">
-        <v>7.425391416165515</v>
+        <v>7.425391416165518</v>
       </c>
       <c r="I58" t="n">
         <v>17.13017435967448</v>
       </c>
       <c r="J58" t="n">
-        <v>1.942099146361237</v>
+        <v>1.94209914636124</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1242661709876955</v>
+        <v>0.1242661709876973</v>
       </c>
       <c r="L58" t="n">
-        <v>4.560413245709931</v>
+        <v>4.560413245709935</v>
       </c>
       <c r="M58" t="n">
         <v>-5.639758987280842</v>
       </c>
       <c r="N58" t="n">
-        <v>-5.326422423653574</v>
+        <v>-5.326422423653575</v>
       </c>
       <c r="O58" t="n">
         <v>-5.069335711586969</v>
@@ -9942,7 +9942,7 @@
         <v>0.5882437386916752</v>
       </c>
       <c r="R58" t="n">
-        <v>2.835544112505486</v>
+        <v>2.835544112505485</v>
       </c>
       <c r="S58" t="n">
         <v>2.214425315182963</v>
@@ -9963,10 +9963,10 @@
         <v>2.592964553905499</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.3515327007141915</v>
+        <v>0.3515327007141913</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.001948142910800416</v>
+        <v>0.001948142910800411</v>
       </c>
       <c r="AA58" t="n">
         <v>0.9226824143396403</v>
@@ -9984,13 +9984,13 @@
         <v>0.9379728246600936</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.3377758262894124</v>
+        <v>0.3377758262894123</v>
       </c>
       <c r="AG58" t="n">
         <v>1.694129633471137</v>
       </c>
       <c r="AH58" t="n">
-        <v>2.507350468399539</v>
+        <v>2.507350468399538</v>
       </c>
       <c r="AI58" t="n">
         <v>1.181147784564536</v>
@@ -9999,7 +9999,7 @@
         <v>4.232477099479417</v>
       </c>
       <c r="AK58" t="n">
-        <v>2.829080436664295</v>
+        <v>2.829080436664294</v>
       </c>
       <c r="AL58" t="n">
         <v>1.322134155244418</v>
@@ -10011,7 +10011,7 @@
         <v>1.656765827036322</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.5465921618441296</v>
+        <v>0.5465921618441294</v>
       </c>
       <c r="AP58" t="n">
         <v>3.103483306125921</v>
@@ -10023,7 +10023,7 @@
         <v>0.220067924866501</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.57877274166311</v>
+        <v>2.578772741663111</v>
       </c>
       <c r="AT58" t="n">
         <v>1.190027636185087</v>
@@ -10041,10 +10041,10 @@
         <v>0.08467591269476804</v>
       </c>
       <c r="AY58" t="n">
-        <v>1.86945003154944</v>
+        <v>1.869450031549441</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0.2357953581357253</v>
+        <v>0.2357953581357252</v>
       </c>
       <c r="BA58" t="n">
         <v>-0.03395627926811234</v>
@@ -10064,13 +10064,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>5.583179968956712</v>
+        <v>5.583179968956713</v>
       </c>
       <c r="E59" t="n">
         <v>3.96815879623265</v>
       </c>
       <c r="F59" t="n">
-        <v>7.255908601554481</v>
+        <v>7.255908601554482</v>
       </c>
       <c r="G59" t="n">
         <v>11.3139802908755</v>
@@ -10097,7 +10097,7 @@
         <v>13.1594264330103</v>
       </c>
       <c r="O59" t="n">
-        <v>25.60871708970644</v>
+        <v>25.60871708970643</v>
       </c>
       <c r="P59" t="n">
         <v>7.09710179300808</v>
@@ -10115,7 +10115,7 @@
         <v>1.603082585841641</v>
       </c>
       <c r="U59" t="n">
-        <v>5.538339183556695</v>
+        <v>5.538339183556694</v>
       </c>
       <c r="V59" t="n">
         <v>1.4154243105187</v>
@@ -10157,7 +10157,7 @@
         <v>1.468628642461788</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.804593793519413</v>
+        <v>0.8045937935194128</v>
       </c>
       <c r="AJ59" t="n">
         <v>2.275163460413095</v>
@@ -10181,7 +10181,7 @@
         <v>7.734762274598292</v>
       </c>
       <c r="AQ59" t="n">
-        <v>5.247316187109921</v>
+        <v>5.247316187109922</v>
       </c>
       <c r="AR59" t="n">
         <v>2.999247681943702</v>
@@ -10240,31 +10240,31 @@
         <v>10.71589463569094</v>
       </c>
       <c r="H60" t="n">
-        <v>6.144547536560488</v>
+        <v>6.144547536560491</v>
       </c>
       <c r="I60" t="n">
-        <v>15.77137376850689</v>
+        <v>15.7713737685069</v>
       </c>
       <c r="J60" t="n">
-        <v>-1.403740914783118</v>
+        <v>-1.403740914783114</v>
       </c>
       <c r="K60" t="n">
         <v>-2.450077670389472</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5682267103159759</v>
+        <v>0.5682267103159795</v>
       </c>
       <c r="M60" t="n">
-        <v>-8.608173464262936</v>
+        <v>-8.60817346426294</v>
       </c>
       <c r="N60" t="n">
-        <v>-7.637734886026401</v>
+        <v>-7.637734886026404</v>
       </c>
       <c r="O60" t="n">
-        <v>-8.622306817443306</v>
+        <v>-8.622306817443302</v>
       </c>
       <c r="P60" t="n">
-        <v>1.330495356560069</v>
+        <v>1.330495356560068</v>
       </c>
       <c r="Q60" t="n">
         <v>0.3944781527152372</v>
@@ -10276,7 +10276,7 @@
         <v>2.432708438102482</v>
       </c>
       <c r="T60" t="n">
-        <v>1.14022512226838</v>
+        <v>1.140225122268381</v>
       </c>
       <c r="U60" t="n">
         <v>3.812244199554576</v>
@@ -10291,10 +10291,10 @@
         <v>2.873474376386659</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.4097878464553008</v>
+        <v>0.4097878464553006</v>
       </c>
       <c r="Z60" t="n">
-        <v>-0.002163649589212134</v>
+        <v>-0.002163649589212136</v>
       </c>
       <c r="AA60" t="n">
         <v>1.068739190619572</v>
@@ -10312,7 +10312,7 @@
         <v>0.654665817983261</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.1964442936340041</v>
+        <v>0.196444293634004</v>
       </c>
       <c r="AG60" t="n">
         <v>1.263071465658895</v>
@@ -10321,7 +10321,7 @@
         <v>2.02528773478297</v>
       </c>
       <c r="AI60" t="n">
-        <v>0.8280623859940659</v>
+        <v>0.828062385994066</v>
       </c>
       <c r="AJ60" t="n">
         <v>3.59284557224882</v>
@@ -10330,7 +10330,7 @@
         <v>2.192173780176275</v>
       </c>
       <c r="AL60" t="n">
-        <v>0.8980266057785484</v>
+        <v>0.8980266057785483</v>
       </c>
       <c r="AM60" t="n">
         <v>3.869186946584592</v>
@@ -10345,13 +10345,13 @@
         <v>1.81559416712067</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.370450869702438</v>
+        <v>0.3704508697024371</v>
       </c>
       <c r="AR60" t="n">
         <v>-0.4022680706747495</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.487680780620013</v>
+        <v>1.487680780620014</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5840546812850866</v>
@@ -10360,19 +10360,19 @@
         <v>-0.1852504682039542</v>
       </c>
       <c r="AV60" t="n">
-        <v>1.703893149022707</v>
+        <v>1.703893149022706</v>
       </c>
       <c r="AW60" t="n">
-        <v>0.5500054018517189</v>
+        <v>0.5500054018517186</v>
       </c>
       <c r="AX60" t="n">
         <v>-0.09351865142338567</v>
       </c>
       <c r="AY60" t="n">
-        <v>1.439241878130745</v>
+        <v>1.439241878130746</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0.1758277278795284</v>
+        <v>0.1758277278795282</v>
       </c>
       <c r="BA60" t="n">
         <v>-0.04950565038137002</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>16.15916321349432</v>
+        <v>16.15916321349433</v>
       </c>
       <c r="E61" t="n">
         <v>11.17472562358962</v>
@@ -10422,28 +10422,28 @@
         <v>11.53918540609283</v>
       </c>
       <c r="N61" t="n">
-        <v>7.458008775305981</v>
+        <v>7.45800877530598</v>
       </c>
       <c r="O61" t="n">
-        <v>15.99107013470073</v>
+        <v>15.99107013470074</v>
       </c>
       <c r="P61" t="n">
-        <v>3.983589168400248</v>
+        <v>3.983589168400247</v>
       </c>
       <c r="Q61" t="n">
         <v>1.951151323904418</v>
       </c>
       <c r="R61" t="n">
-        <v>6.734003327119992</v>
+        <v>6.734003327119993</v>
       </c>
       <c r="S61" t="n">
         <v>1.74515430184486</v>
       </c>
       <c r="T61" t="n">
-        <v>0.6625849293930137</v>
+        <v>0.6625849293930136</v>
       </c>
       <c r="U61" t="n">
-        <v>3.39468066231897</v>
+        <v>3.394680662318971</v>
       </c>
       <c r="V61" t="n">
         <v>0.7007683384789556</v>
@@ -10455,10 +10455,10 @@
         <v>1.589802999873223</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.1269338088289555</v>
+        <v>0.1269338088289556</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.001951157441436983</v>
+        <v>-0.001951157441436984</v>
       </c>
       <c r="AA61" t="n">
         <v>0.4269608319037553</v>
@@ -10476,7 +10476,7 @@
         <v>1.115734756367197</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.4937822272955252</v>
+        <v>0.4937822272955253</v>
       </c>
       <c r="AG61" t="n">
         <v>1.851870020748102</v>
@@ -10488,7 +10488,7 @@
         <v>2.082956919691249</v>
       </c>
       <c r="AJ61" t="n">
-        <v>5.921766106805893</v>
+        <v>5.921766106805894</v>
       </c>
       <c r="AK61" t="n">
         <v>5.885041679801016</v>
@@ -10515,16 +10515,16 @@
         <v>3.194675360342581</v>
       </c>
       <c r="AS61" t="n">
-        <v>8.254223772503996</v>
+        <v>8.254223772503995</v>
       </c>
       <c r="AT61" t="n">
-        <v>4.299066978202765</v>
+        <v>4.299066978202766</v>
       </c>
       <c r="AU61" t="n">
-        <v>2.342124166484272</v>
+        <v>2.342124166484271</v>
       </c>
       <c r="AV61" t="n">
-        <v>6.563289240240977</v>
+        <v>6.563289240240976</v>
       </c>
       <c r="AW61" t="n">
         <v>2.513981980510383</v>
@@ -10536,7 +10536,7 @@
         <v>4.168782660485707</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.5910118699831655</v>
+        <v>0.5910118699831656</v>
       </c>
       <c r="BA61" t="n">
         <v>0.02788946623326764</v>
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>8.71740079093547</v>
+        <v>8.717400790935468</v>
       </c>
       <c r="E62" t="n">
         <v>5.908731133664793</v>
@@ -10592,7 +10592,7 @@
         <v>18.9390552717517</v>
       </c>
       <c r="P62" t="n">
-        <v>5.373220367431494</v>
+        <v>5.373220367431493</v>
       </c>
       <c r="Q62" t="n">
         <v>2.905799587193989</v>
@@ -10619,10 +10619,10 @@
         <v>2.285735836924618</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.2302530784255471</v>
+        <v>0.2302530784255472</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.005865992766540945</v>
+        <v>0.005865992766540947</v>
       </c>
       <c r="AA62" t="n">
         <v>0.6548747352038176</v>
@@ -10655,7 +10655,7 @@
         <v>3.778510992577647</v>
       </c>
       <c r="AK62" t="n">
-        <v>4.232907997997052</v>
+        <v>4.232907997997053</v>
       </c>
       <c r="AL62" t="n">
         <v>2.351201132978334</v>
@@ -10673,13 +10673,13 @@
         <v>7.902429867815182</v>
       </c>
       <c r="AQ62" t="n">
-        <v>5.003688197224453</v>
+        <v>5.003688197224452</v>
       </c>
       <c r="AR62" t="n">
         <v>2.776805659249404</v>
       </c>
       <c r="AS62" t="n">
-        <v>7.468445171617389</v>
+        <v>7.468445171617388</v>
       </c>
       <c r="AT62" t="n">
         <v>3.985329659155984</v>
@@ -10700,7 +10700,7 @@
         <v>4.017862275942502</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0.5791683344493437</v>
+        <v>0.5791683344493438</v>
       </c>
       <c r="BA62" t="n">
         <v>0.03479651174582079</v>
@@ -10732,7 +10732,7 @@
         <v>34.6498235204786</v>
       </c>
       <c r="H63" t="n">
-        <v>23.85144145273052</v>
+        <v>23.85144145273053</v>
       </c>
       <c r="I63" t="n">
         <v>44.96706183396526</v>
@@ -10744,7 +10744,7 @@
         <v>12.41652336213694</v>
       </c>
       <c r="L63" t="n">
-        <v>25.45845494209299</v>
+        <v>25.458454942093</v>
       </c>
       <c r="M63" t="n">
         <v>1.533048186891904</v>
@@ -10753,10 +10753,10 @@
         <v>0.1577135713681024</v>
       </c>
       <c r="O63" t="n">
-        <v>3.663979949075877</v>
+        <v>3.663979949075884</v>
       </c>
       <c r="P63" t="n">
-        <v>0.7842006956336389</v>
+        <v>0.784200695633638</v>
       </c>
       <c r="Q63" t="n">
         <v>-0.1868691759043477</v>
@@ -10765,28 +10765,28 @@
         <v>2.517202743063795</v>
       </c>
       <c r="S63" t="n">
-        <v>0.4171728494905911</v>
+        <v>0.4171728494905906</v>
       </c>
       <c r="T63" t="n">
         <v>-0.1185912784192984</v>
       </c>
       <c r="U63" t="n">
-        <v>1.472032923602247</v>
+        <v>1.472032923602248</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1804069098629639</v>
+        <v>0.1804069098629637</v>
       </c>
       <c r="W63" t="n">
-        <v>-0.0829736390609126</v>
+        <v>-0.08297363906091249</v>
       </c>
       <c r="X63" t="n">
-        <v>0.7623328562478489</v>
+        <v>0.7623328562478493</v>
       </c>
       <c r="Y63" t="n">
         <v>0.03225551628329026</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.0181485785289357</v>
+        <v>-0.01814857852893571</v>
       </c>
       <c r="AA63" t="n">
         <v>0.2310981206122006</v>
@@ -10834,7 +10834,7 @@
         <v>3.983834900142409</v>
       </c>
       <c r="AP63" t="n">
-        <v>9.699080055770427</v>
+        <v>9.699080055770425</v>
       </c>
       <c r="AQ63" t="n">
         <v>5.156010015858573</v>
@@ -10852,7 +10852,7 @@
         <v>1.972105749766346</v>
       </c>
       <c r="AV63" t="n">
-        <v>5.859293040026642</v>
+        <v>5.859293040026641</v>
       </c>
       <c r="AW63" t="n">
         <v>2.127491764749164</v>
@@ -10861,10 +10861,10 @@
         <v>0.8458206697320148</v>
       </c>
       <c r="AY63" t="n">
-        <v>3.637785208425824</v>
+        <v>3.637785208425823</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0.4932364666765035</v>
+        <v>0.4932364666765036</v>
       </c>
       <c r="BA63" t="n">
         <v>-0.008948098241360482</v>
@@ -10893,31 +10893,31 @@
         <v>13.04539160478844</v>
       </c>
       <c r="G64" t="n">
-        <v>10.0352369205525</v>
+        <v>10.03523692055251</v>
       </c>
       <c r="H64" t="n">
-        <v>5.739780429302999</v>
+        <v>5.739780429303002</v>
       </c>
       <c r="I64" t="n">
         <v>14.89536153868729</v>
       </c>
       <c r="J64" t="n">
-        <v>-1.474924225076887</v>
+        <v>-1.474924225076883</v>
       </c>
       <c r="K64" t="n">
         <v>-2.462217762726416</v>
       </c>
       <c r="L64" t="n">
-        <v>0.4525637271672593</v>
+        <v>0.4525637271672629</v>
       </c>
       <c r="M64" t="n">
         <v>-8.451338370078393</v>
       </c>
       <c r="N64" t="n">
-        <v>-7.495247902798546</v>
+        <v>-7.49524790279855</v>
       </c>
       <c r="O64" t="n">
-        <v>-8.45360124239587</v>
+        <v>-8.453601242395866</v>
       </c>
       <c r="P64" t="n">
         <v>1.371891086291162</v>
@@ -10926,7 +10926,7 @@
         <v>0.4341799523960508</v>
       </c>
       <c r="R64" t="n">
-        <v>2.416271684788342</v>
+        <v>2.416271684788341</v>
       </c>
       <c r="S64" t="n">
         <v>2.435169974862343</v>
@@ -10941,19 +10941,19 @@
         <v>1.640961087237951</v>
       </c>
       <c r="W64" t="n">
-        <v>0.5715743986096238</v>
+        <v>0.5715743986096237</v>
       </c>
       <c r="X64" t="n">
-        <v>2.874318347765433</v>
+        <v>2.874318347765434</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.4086503352466256</v>
+        <v>0.4086503352466254</v>
       </c>
       <c r="Z64" t="n">
-        <v>-0.0002485335070915723</v>
+        <v>-0.0002485335070915775</v>
       </c>
       <c r="AA64" t="n">
-        <v>1.060702076306749</v>
+        <v>1.060702076306748</v>
       </c>
       <c r="AB64" t="n">
         <v>0</v>
@@ -10968,7 +10968,7 @@
         <v>0.7065454909584015</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.2200606019789469</v>
+        <v>0.2200606019789468</v>
       </c>
       <c r="AG64" t="n">
         <v>1.344864507145653</v>
@@ -10977,7 +10977,7 @@
         <v>2.031309044840502</v>
       </c>
       <c r="AI64" t="n">
-        <v>0.848625411323551</v>
+        <v>0.8486254113235511</v>
       </c>
       <c r="AJ64" t="n">
         <v>3.593121627081918</v>
@@ -10986,13 +10986,13 @@
         <v>2.145507728280877</v>
       </c>
       <c r="AL64" t="n">
-        <v>0.8694769281315249</v>
+        <v>0.8694769281315248</v>
       </c>
       <c r="AM64" t="n">
         <v>3.791748441531497</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.6891367101320127</v>
+        <v>0.6891367101320123</v>
       </c>
       <c r="AO64" t="n">
         <v>-0.1069291923782236</v>
@@ -11001,13 +11001,13 @@
         <v>1.816416777020573</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.3752731481613942</v>
+        <v>0.3752731481613933</v>
       </c>
       <c r="AR64" t="n">
-        <v>-0.3842923424285258</v>
+        <v>-0.3842923424285263</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.492171419279544</v>
+        <v>1.492171419279545</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5952684217237998</v>
@@ -11028,10 +11028,10 @@
         <v>1.446136399553519</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0.1754459244140505</v>
+        <v>0.1754459244140503</v>
       </c>
       <c r="BA64" t="n">
-        <v>-0.04748683318712165</v>
+        <v>-0.04748683318712164</v>
       </c>
       <c r="BB64" t="n">
         <v>0.6401083571832178</v>
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.26631122323816</v>
+        <v>-1.266311223238163</v>
       </c>
       <c r="E65" t="n">
         <v>-0.5859034952063125</v>
@@ -11060,7 +11060,7 @@
         <v>10.00149036500862</v>
       </c>
       <c r="H65" t="n">
-        <v>7.501847763132644</v>
+        <v>7.50184776313264</v>
       </c>
       <c r="I65" t="n">
         <v>12.04983944547446</v>
@@ -11099,7 +11099,7 @@
         <v>2.079108264848457</v>
       </c>
       <c r="U65" t="n">
-        <v>7.010838786236345</v>
+        <v>7.010838786236346</v>
       </c>
       <c r="V65" t="n">
         <v>1.541428951866441</v>
@@ -11111,10 +11111,10 @@
         <v>2.961701550506487</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.2614477818052022</v>
+        <v>0.2614477818052025</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.02881012898721132</v>
+        <v>0.02881012898721133</v>
       </c>
       <c r="AA65" t="n">
         <v>0.6967408211454028</v>
@@ -11138,7 +11138,7 @@
         <v>-0.3907259219373876</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.4547722694255736</v>
+        <v>0.454772269425574</v>
       </c>
       <c r="AI65" t="n">
         <v>0.3181675337756836</v>
@@ -11147,7 +11147,7 @@
         <v>0.5438666828818164</v>
       </c>
       <c r="AK65" t="n">
-        <v>2.974366805874641</v>
+        <v>2.974366805874642</v>
       </c>
       <c r="AL65" t="n">
         <v>1.698752042892816</v>
@@ -11177,7 +11177,7 @@
         <v>5.950631331689801</v>
       </c>
       <c r="AU65" t="n">
-        <v>3.471301015115153</v>
+        <v>3.471301015115152</v>
       </c>
       <c r="AV65" t="n">
         <v>8.721461914632037</v>
@@ -11189,10 +11189,10 @@
         <v>1.802447175981193</v>
       </c>
       <c r="AY65" t="n">
-        <v>5.64030215375585</v>
+        <v>5.640302153755849</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0.8476757172491201</v>
+        <v>0.8476757172491203</v>
       </c>
       <c r="BA65" t="n">
         <v>0.1110575147130364</v>
@@ -11218,7 +11218,7 @@
         <v>11.04180485701142</v>
       </c>
       <c r="F66" t="n">
-        <v>22.17505337276786</v>
+        <v>22.17505337276785</v>
       </c>
       <c r="G66" t="n">
         <v>24.01742830532192</v>
@@ -11236,19 +11236,19 @@
         <v>7.992978803162519</v>
       </c>
       <c r="L66" t="n">
-        <v>17.9249286496764</v>
+        <v>17.92492864967641</v>
       </c>
       <c r="M66" t="n">
         <v>1.383463313450902</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.1023288352693417</v>
+        <v>-0.1023288352693434</v>
       </c>
       <c r="O66" t="n">
-        <v>3.565110705412811</v>
+        <v>3.565110705412817</v>
       </c>
       <c r="P66" t="n">
-        <v>2.005164587043923</v>
+        <v>2.005164587043922</v>
       </c>
       <c r="Q66" t="n">
         <v>0.6931189004512266</v>
@@ -11278,7 +11278,7 @@
         <v>0.1904173979949656</v>
       </c>
       <c r="Z66" t="n">
-        <v>-0.008697872574608646</v>
+        <v>-0.008697872574608649</v>
       </c>
       <c r="AA66" t="n">
         <v>0.5809574572537246</v>
@@ -11320,7 +11320,7 @@
         <v>8.084053520712505</v>
       </c>
       <c r="AN66" t="n">
-        <v>4.614045106322802</v>
+        <v>4.614045106322801</v>
       </c>
       <c r="AO66" t="n">
         <v>2.557225880690177</v>
@@ -11329,7 +11329,7 @@
         <v>6.957279404342839</v>
       </c>
       <c r="AQ66" t="n">
-        <v>3.710382884506291</v>
+        <v>3.71038288450629</v>
       </c>
       <c r="AR66" t="n">
         <v>1.871367172535571</v>
@@ -11344,7 +11344,7 @@
         <v>1.371309592576164</v>
       </c>
       <c r="AV66" t="n">
-        <v>4.704614244872274</v>
+        <v>4.704614244872273</v>
       </c>
       <c r="AW66" t="n">
         <v>1.729019590340857</v>
@@ -11406,7 +11406,7 @@
         <v>6.857037205605002</v>
       </c>
       <c r="N67" t="n">
-        <v>3.97527971638316</v>
+        <v>3.975279716383159</v>
       </c>
       <c r="O67" t="n">
         <v>10.23477252336755</v>
@@ -11436,13 +11436,13 @@
         <v>0.3652556173652773</v>
       </c>
       <c r="X67" t="n">
-        <v>2.157574415865736</v>
+        <v>2.157574415865737</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.2343440106417728</v>
+        <v>0.2343440106417727</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.005146186215502392</v>
+        <v>0.005146186215502387</v>
       </c>
       <c r="AA67" t="n">
         <v>0.6547774699610324</v>
@@ -11475,13 +11475,13 @@
         <v>4.644711491009482</v>
       </c>
       <c r="AK67" t="n">
-        <v>4.237899951661792</v>
+        <v>4.23789995166179</v>
       </c>
       <c r="AL67" t="n">
         <v>2.303599710047781</v>
       </c>
       <c r="AM67" t="n">
-        <v>6.510311911353558</v>
+        <v>6.510311911353559</v>
       </c>
       <c r="AN67" t="n">
         <v>4.455963473432274</v>
@@ -11517,7 +11517,7 @@
         <v>0.7489548360413913</v>
       </c>
       <c r="AY67" t="n">
-        <v>3.363522525030505</v>
+        <v>3.363522525030506</v>
       </c>
       <c r="AZ67" t="n">
         <v>0.4680221817469483</v>
@@ -11540,31 +11540,31 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1086088411752835</v>
+        <v>0.1086088411752799</v>
       </c>
       <c r="E68" t="n">
         <v>-0.5269306748433982</v>
       </c>
       <c r="F68" t="n">
-        <v>1.018234481241388</v>
+        <v>1.018234481241386</v>
       </c>
       <c r="G68" t="n">
-        <v>5.397363577277878</v>
+        <v>5.397363577277879</v>
       </c>
       <c r="H68" t="n">
-        <v>2.762880214870346</v>
+        <v>2.762880214870347</v>
       </c>
       <c r="I68" t="n">
         <v>8.332870055913837</v>
       </c>
       <c r="J68" t="n">
-        <v>4.119693223330923</v>
+        <v>4.119693223330925</v>
       </c>
       <c r="K68" t="n">
         <v>1.744513711264723</v>
       </c>
       <c r="L68" t="n">
-        <v>7.081388566534615</v>
+        <v>7.081388566534619</v>
       </c>
       <c r="M68" t="n">
         <v>3.739037855181902</v>
@@ -11573,10 +11573,10 @@
         <v>1.403924847372885</v>
       </c>
       <c r="O68" t="n">
-        <v>6.582932173848146</v>
+        <v>6.58293217384815</v>
       </c>
       <c r="P68" t="n">
-        <v>4.657155407216546</v>
+        <v>4.657155407216545</v>
       </c>
       <c r="Q68" t="n">
         <v>2.567457039777186</v>
@@ -11585,7 +11585,7 @@
         <v>6.950243624561912</v>
       </c>
       <c r="S68" t="n">
-        <v>3.532560620497787</v>
+        <v>3.532560620497788</v>
       </c>
       <c r="T68" t="n">
         <v>1.768826065677945</v>
@@ -11597,13 +11597,13 @@
         <v>1.96702797243019</v>
       </c>
       <c r="W68" t="n">
-        <v>0.7398847731642686</v>
+        <v>0.7398847731642685</v>
       </c>
       <c r="X68" t="n">
         <v>3.417058812015776</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.4507610380945574</v>
+        <v>0.4507610380945573</v>
       </c>
       <c r="Z68" t="n">
         <v>0.0104850996698169</v>
@@ -11624,13 +11624,13 @@
         <v>0.01681681056019074</v>
       </c>
       <c r="AF68" t="n">
-        <v>-0.05503744790416232</v>
+        <v>-0.05503744790416248</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.1528199745053777</v>
+        <v>0.1528199745053775</v>
       </c>
       <c r="AH68" t="n">
-        <v>0.5534538683603172</v>
+        <v>0.5534538683603167</v>
       </c>
       <c r="AI68" t="n">
         <v>0.07080282899780643</v>
@@ -11639,7 +11639,7 @@
         <v>1.223021486819336</v>
       </c>
       <c r="AK68" t="n">
-        <v>1.171954801195593</v>
+        <v>1.171954801195594</v>
       </c>
       <c r="AL68" t="n">
         <v>0.3407244809975953</v>
@@ -11648,7 +11648,7 @@
         <v>2.31748990677034</v>
       </c>
       <c r="AN68" t="n">
-        <v>1.401038037448102</v>
+        <v>1.401038037448101</v>
       </c>
       <c r="AO68" t="n">
         <v>0.3630924911390645</v>
@@ -11660,22 +11660,22 @@
         <v>1.658933903961644</v>
       </c>
       <c r="AR68" t="n">
-        <v>0.4851946877928608</v>
+        <v>0.4851946877928606</v>
       </c>
       <c r="AS68" t="n">
-        <v>3.153474352699841</v>
+        <v>3.153474352699842</v>
       </c>
       <c r="AT68" t="n">
         <v>1.684788984381823</v>
       </c>
       <c r="AU68" t="n">
-        <v>0.5663826285499149</v>
+        <v>0.5663826285499152</v>
       </c>
       <c r="AV68" t="n">
         <v>3.151753275862681</v>
       </c>
       <c r="AW68" t="n">
-        <v>1.229038976690874</v>
+        <v>1.229038976690873</v>
       </c>
       <c r="AX68" t="n">
         <v>0.34413789990444</v>
@@ -11684,13 +11684,13 @@
         <v>2.37286939791823</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0.335097975304299</v>
+        <v>0.3350979753042989</v>
       </c>
       <c r="BA68" t="n">
         <v>-0.005193983570477748</v>
       </c>
       <c r="BB68" t="n">
-        <v>0.9103946322370886</v>
+        <v>0.9103946322370887</v>
       </c>
     </row>
     <row r="69">
@@ -11722,7 +11722,7 @@
         <v>35.36471879047907</v>
       </c>
       <c r="J69" t="n">
-        <v>28.96423985721679</v>
+        <v>28.96423985721678</v>
       </c>
       <c r="K69" t="n">
         <v>20.00772244764376</v>
@@ -11749,7 +11749,7 @@
         <v>9.553322134582665</v>
       </c>
       <c r="S69" t="n">
-        <v>1.955348024863928</v>
+        <v>1.955348024863927</v>
       </c>
       <c r="T69" t="n">
         <v>0.7547686887272401</v>
@@ -11767,10 +11767,10 @@
         <v>1.436610627072169</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.06572524208029573</v>
+        <v>0.06572524208029587</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.0009653255274935605</v>
+        <v>0.0009653255274935622</v>
       </c>
       <c r="AA69" t="n">
         <v>0.2890384351794323</v>
@@ -11806,7 +11806,7 @@
         <v>6.563622434519695</v>
       </c>
       <c r="AL69" t="n">
-        <v>3.880470880199157</v>
+        <v>3.880470880199156</v>
       </c>
       <c r="AM69" t="n">
         <v>9.616067906441094</v>
@@ -11821,7 +11821,7 @@
         <v>11.75869379573181</v>
       </c>
       <c r="AQ69" t="n">
-        <v>7.508637208327341</v>
+        <v>7.508637208327342</v>
       </c>
       <c r="AR69" t="n">
         <v>4.482032091657144</v>
@@ -11836,7 +11836,7 @@
         <v>3.297888070074207</v>
       </c>
       <c r="AV69" t="n">
-        <v>8.409331540936176</v>
+        <v>8.409331540936174</v>
       </c>
       <c r="AW69" t="n">
         <v>3.294523994591213</v>
@@ -11845,10 +11845,10 @@
         <v>1.591397669838162</v>
       </c>
       <c r="AY69" t="n">
-        <v>5.246436043393625</v>
+        <v>5.246436043393624</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.7625074564072357</v>
+        <v>0.7625074564072359</v>
       </c>
       <c r="BA69" t="n">
         <v>0.0632752703373584</v>
@@ -11871,10 +11871,10 @@
         <v>-2.450853683966129</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.009767892178039</v>
+        <v>-2.00976789217804</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.599335912825721</v>
+        <v>-2.599335912825719</v>
       </c>
       <c r="G70" t="n">
         <v>-1.98755337875548</v>
@@ -11886,25 +11886,25 @@
         <v>-1.321855474884121</v>
       </c>
       <c r="J70" t="n">
-        <v>4.781390400053155</v>
+        <v>4.781390400053157</v>
       </c>
       <c r="K70" t="n">
-        <v>2.481796927381579</v>
+        <v>2.48179692738158</v>
       </c>
       <c r="L70" t="n">
-        <v>7.647898328054655</v>
+        <v>7.647898328054657</v>
       </c>
       <c r="M70" t="n">
         <v>9.369446841520551</v>
       </c>
       <c r="N70" t="n">
-        <v>5.624020382253241</v>
+        <v>5.624020382253242</v>
       </c>
       <c r="O70" t="n">
         <v>13.42129956685032</v>
       </c>
       <c r="P70" t="n">
-        <v>6.422432562524225</v>
+        <v>6.422432562524226</v>
       </c>
       <c r="Q70" t="n">
         <v>3.795274488404823</v>
@@ -11931,7 +11931,7 @@
         <v>3.834169769343559</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.4935501395326894</v>
+        <v>0.4935501395326893</v>
       </c>
       <c r="Z70" t="n">
         <v>0.02624427454204849</v>
@@ -11952,7 +11952,7 @@
         <v>-0.1324831586389173</v>
       </c>
       <c r="AF70" t="n">
-        <v>-0.1097462349312933</v>
+        <v>-0.1097462349312934</v>
       </c>
       <c r="AG70" t="n">
         <v>-0.1270766060569576</v>
@@ -11985,13 +11985,13 @@
         <v>2.593077037376123</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.907384172306069</v>
+        <v>1.907384172306068</v>
       </c>
       <c r="AR70" t="n">
-        <v>0.7256124387333815</v>
+        <v>0.7256124387333813</v>
       </c>
       <c r="AS70" t="n">
-        <v>3.467768990175394</v>
+        <v>3.467768990175395</v>
       </c>
       <c r="AT70" t="n">
         <v>1.999452101112468</v>
@@ -12009,10 +12009,10 @@
         <v>0.4738995471772819</v>
       </c>
       <c r="AY70" t="n">
-        <v>2.665946209639266</v>
+        <v>2.665946209639267</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0.3824584630957183</v>
+        <v>0.3824584630957181</v>
       </c>
       <c r="BA70" t="n">
         <v>0.02130006744382985</v>
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-9.300344876161001</v>
+        <v>-9.300344876161004</v>
       </c>
       <c r="E71" t="n">
         <v>-6.563830183617001</v>
@@ -12044,7 +12044,7 @@
         <v>-3.30004330462236</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.47873304237733</v>
+        <v>-2.478733042377334</v>
       </c>
       <c r="I71" t="n">
         <v>-3.897509677031167</v>
@@ -12065,10 +12065,10 @@
         <v>16.40704464511394</v>
       </c>
       <c r="O71" t="n">
-        <v>31.50468736380837</v>
+        <v>31.50468736380836</v>
       </c>
       <c r="P71" t="n">
-        <v>9.876364191070572</v>
+        <v>9.876364191070573</v>
       </c>
       <c r="Q71" t="n">
         <v>6.003211762719957</v>
@@ -12095,7 +12095,7 @@
         <v>4.093868496976419</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.4808182302655374</v>
+        <v>0.4808182302655375</v>
       </c>
       <c r="Z71" t="n">
         <v>0.03534435197260784</v>
@@ -12116,13 +12116,13 @@
         <v>-0.6945438512857172</v>
       </c>
       <c r="AF71" t="n">
-        <v>-0.3143616771938225</v>
+        <v>-0.3143616771938226</v>
       </c>
       <c r="AG71" t="n">
         <v>-1.133442095345264</v>
       </c>
       <c r="AH71" t="n">
-        <v>-1.401222944350314</v>
+        <v>-1.401222944350313</v>
       </c>
       <c r="AI71" t="n">
         <v>-0.8474177565523782</v>
@@ -12131,7 +12131,7 @@
         <v>-2.011346768043397</v>
       </c>
       <c r="AK71" t="n">
-        <v>-0.1332524428222159</v>
+        <v>-0.133252442822215</v>
       </c>
       <c r="AL71" t="n">
         <v>-0.3402742867349469</v>
@@ -12143,7 +12143,7 @@
         <v>2.928530396397255</v>
       </c>
       <c r="AO71" t="n">
-        <v>1.372632513002177</v>
+        <v>1.372632513002178</v>
       </c>
       <c r="AP71" t="n">
         <v>4.822003590354202</v>
@@ -12196,19 +12196,19 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1581117480167489</v>
+        <v>-0.1581117480167524</v>
       </c>
       <c r="E72" t="n">
         <v>-0.3940099082652031</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1515381051620128</v>
+        <v>0.1515381051620146</v>
       </c>
       <c r="G72" t="n">
         <v>6.705186601475315</v>
       </c>
       <c r="H72" t="n">
-        <v>4.207613695205283</v>
+        <v>4.207613695205282</v>
       </c>
       <c r="I72" t="n">
         <v>9.279855775827508</v>
@@ -12217,7 +12217,7 @@
         <v>12.11372031498578</v>
       </c>
       <c r="K72" t="n">
-        <v>7.739745441168404</v>
+        <v>7.739745441168402</v>
       </c>
       <c r="L72" t="n">
         <v>16.67323824718102</v>
@@ -12253,7 +12253,7 @@
         <v>1.824200348838816</v>
       </c>
       <c r="W72" t="n">
-        <v>0.7029142901119753</v>
+        <v>0.7029142901119751</v>
       </c>
       <c r="X72" t="n">
         <v>3.265554381972271</v>
@@ -12262,7 +12262,7 @@
         <v>0.3872774489285473</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.01723181480298856</v>
+        <v>0.01723181480298857</v>
       </c>
       <c r="AA72" t="n">
         <v>0.9966969575325183</v>
@@ -12280,19 +12280,19 @@
         <v>-0.032786202061517</v>
       </c>
       <c r="AF72" t="n">
-        <v>-0.0396299447249614</v>
+        <v>-0.03962994472496151</v>
       </c>
       <c r="AG72" t="n">
-        <v>-0.001097643813291804</v>
+        <v>-0.001097643813291693</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.5225671054012468</v>
+        <v>0.5225671054012466</v>
       </c>
       <c r="AI72" t="n">
         <v>0.1601120723669273</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0.9967285704511955</v>
+        <v>0.9967285704511952</v>
       </c>
       <c r="AK72" t="n">
         <v>1.757203452123477</v>
@@ -12313,7 +12313,7 @@
         <v>5.161451826287498</v>
       </c>
       <c r="AQ72" t="n">
-        <v>3.562883344331127</v>
+        <v>3.562883344331126</v>
       </c>
       <c r="AR72" t="n">
         <v>1.808502875599871</v>
@@ -12340,7 +12340,7 @@
         <v>3.464311823671695</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0.5058299547974134</v>
+        <v>0.5058299547974133</v>
       </c>
       <c r="BA72" t="n">
         <v>0.03422945492210978</v>
